--- a/file.xlsx
+++ b/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12000" windowHeight="7695"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Ustadz Andi Iskandar</t>
+  </si>
+  <si>
+    <t>sudah dikabari</t>
   </si>
   <si>
     <t>Santri MABAIZ</t>
@@ -153,10 +156,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
     <numFmt numFmtId="177" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -175,44 +178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -221,70 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,14 +202,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +246,81 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -340,181 +343,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +565,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -572,32 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,15 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -640,153 +623,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,17 +1140,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
     <col min="3" max="4" width="23.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="12.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1180,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1193,6 +1197,9 @@
       <c r="D5" s="3" t="str">
         <f>C5</f>
         <v>Ustadz Andi Iskandar</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1205,10 +1212,10 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1217,12 +1224,15 @@
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>C7</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5">
@@ -1234,7 +1244,7 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1246,7 +1256,7 @@
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>C9</f>
@@ -1263,7 +1273,7 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1275,7 +1285,7 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>C11</f>
@@ -1292,7 +1302,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1304,7 +1314,7 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="str">
         <f>C13</f>
@@ -1321,10 +1331,10 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1339,6 +1349,9 @@
         <f>C15</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5">
@@ -1350,7 +1363,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1362,7 +1375,7 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
@@ -1379,7 +1392,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1391,7 +1404,7 @@
         <v>45730</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="str">
         <f>C19</f>
@@ -1408,10 +1421,10 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1420,12 +1433,15 @@
         <v>45732</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="str">
         <f>C21</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5">
@@ -1437,7 +1453,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1449,7 +1465,7 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>C23</f>
@@ -1466,7 +1482,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1478,7 +1494,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
@@ -1495,7 +1511,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1507,7 +1523,7 @@
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>C27</f>
@@ -1524,7 +1540,7 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1536,7 +1552,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
@@ -1553,10 +1569,10 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1565,12 +1581,15 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3" t="str">
         <f>C31</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5">
@@ -1582,10 +1601,10 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1600,6 +1619,9 @@
         <f>C33</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5">
@@ -1610,7 +1632,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1664,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1650,7 +1672,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1658,13 +1680,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -1678,10 +1700,10 @@
         <v>45007</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1693,10 +1715,10 @@
         <v>45008</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1708,10 +1730,10 @@
         <v>45009</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1723,10 +1745,10 @@
         <v>45010</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1738,10 +1760,10 @@
         <v>45011</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1753,10 +1775,10 @@
         <v>45012</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1768,10 +1790,10 @@
         <v>45013</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1783,10 +1805,10 @@
         <v>45014</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1798,10 +1820,10 @@
         <v>45015</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1813,10 +1835,10 @@
         <v>45016</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1828,10 +1850,10 @@
         <v>45017</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1843,10 +1865,10 @@
         <v>45018</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1858,10 +1880,10 @@
         <v>45019</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1873,10 +1895,10 @@
         <v>45020</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1888,10 +1910,10 @@
         <v>45021</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1903,10 +1925,10 @@
         <v>45022</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1918,10 +1940,10 @@
         <v>45023</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1933,10 +1955,10 @@
         <v>45024</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1948,10 +1970,10 @@
         <v>45025</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1963,10 +1985,10 @@
         <v>45026</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1978,10 +2000,10 @@
         <v>45027</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1993,10 +2015,10 @@
         <v>45028</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2008,10 +2030,10 @@
         <v>45029</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2023,10 +2045,10 @@
         <v>45030</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2038,10 +2060,10 @@
         <v>45031</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2053,10 +2075,10 @@
         <v>45032</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2068,10 +2090,10 @@
         <v>45033</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2083,10 +2105,10 @@
         <v>45034</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2098,10 +2120,10 @@
         <v>45035</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2112,10 +2134,10 @@
         <v>45036</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Ustadz Andi Iskandar</t>
   </si>
   <si>
-    <t>sudah dikabari</t>
+    <t>sudah oke</t>
   </si>
   <si>
     <t>Santri MABAIZ</t>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Ustadz Chairid Daha</t>
+  </si>
+  <si>
+    <t>sudah dikabarkan</t>
   </si>
   <si>
     <t>Ustadz Muhammad Asmuni</t>
@@ -155,11 +158,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="dd\-mmm"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,16 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +198,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -209,10 +227,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,7 +250,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -240,8 +286,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,71 +318,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -337,61 +340,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,121 +508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,24 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -579,6 +564,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -590,36 +599,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,153 +622,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -806,13 +809,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,8 +1145,8 @@
   <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1151,7 +1154,7 @@
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
     <col min="3" max="4" width="23.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="12.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1247,7 +1250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1262,6 +1265,9 @@
         <f>C9</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5">
@@ -1305,7 +1311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1320,6 +1326,9 @@
         <f>C13</f>
         <v>Ustadz Chairid Daha</v>
       </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5">
@@ -1375,7 +1384,7 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
@@ -1395,7 +1404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1410,6 +1419,9 @@
         <f>C19</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5">
@@ -1456,7 +1468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1471,6 +1483,9 @@
         <f>C23</f>
         <v>Ustadz Chairid Daha</v>
       </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5">
@@ -1485,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1494,12 +1509,15 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
         <v>Ustadz Ngalal</v>
       </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5">
@@ -1514,7 +1532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1529,6 +1547,9 @@
         <f>C27</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5">
@@ -1543,7 +1564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1552,11 +1573,14 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
         <v>Ustadz Imanuddin</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1664,7 +1688,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1672,7 +1696,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1680,13 +1704,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -1700,10 +1724,10 @@
         <v>45007</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1715,10 +1739,10 @@
         <v>45008</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1730,10 +1754,10 @@
         <v>45009</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1745,10 +1769,10 @@
         <v>45010</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1760,10 +1784,10 @@
         <v>45011</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1775,10 +1799,10 @@
         <v>45012</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1790,10 +1814,10 @@
         <v>45013</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1805,10 +1829,10 @@
         <v>45014</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1820,10 +1844,10 @@
         <v>45015</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1835,10 +1859,10 @@
         <v>45016</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1850,10 +1874,10 @@
         <v>45017</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1865,10 +1889,10 @@
         <v>45018</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1880,10 +1904,10 @@
         <v>45019</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1895,10 +1919,10 @@
         <v>45020</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1910,10 +1934,10 @@
         <v>45021</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1925,10 +1949,10 @@
         <v>45022</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1940,10 +1964,10 @@
         <v>45023</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1955,10 +1979,10 @@
         <v>45024</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1970,10 +1994,10 @@
         <v>45025</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1985,10 +2009,10 @@
         <v>45026</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2000,10 +2024,10 @@
         <v>45027</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2015,10 +2039,10 @@
         <v>45028</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2030,10 +2054,10 @@
         <v>45029</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2045,10 +2069,10 @@
         <v>45030</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2060,10 +2084,10 @@
         <v>45031</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2075,10 +2099,10 @@
         <v>45032</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2090,10 +2114,10 @@
         <v>45033</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2105,10 +2129,10 @@
         <v>45034</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2120,10 +2144,10 @@
         <v>45035</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2134,10 +2158,10 @@
         <v>45036</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -59,73 +59,52 @@
     <t>sudah dikabarkan</t>
   </si>
   <si>
+    <t>Ustadz Rezky</t>
+  </si>
+  <si>
+    <t>Jadi kah ini? Kuhapus chat-nya</t>
+  </si>
+  <si>
     <t>Ustadz Muhammad Asmuni</t>
   </si>
   <si>
+    <t>Ustadz Kastiawan</t>
+  </si>
+  <si>
     <t>Ustadz Ngalal</t>
   </si>
   <si>
     <t>Ustadz Imanuddin</t>
   </si>
   <si>
-    <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1444 H</t>
+    <t>Abdul Rifai 3x harinya Senin atau kamis</t>
   </si>
   <si>
     <t>Musholla Baitul Hilmi, Jalan Monas</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>Malam Kamis</t>
-  </si>
-  <si>
     <t>Zen</t>
   </si>
   <si>
-    <t>Malam Jumat</t>
-  </si>
-  <si>
     <t>Andi Iskandar</t>
   </si>
   <si>
-    <t>Malam Sabtu</t>
-  </si>
-  <si>
     <t>Wahidi Rahman</t>
   </si>
   <si>
-    <t>Malam Ahad</t>
-  </si>
-  <si>
     <t>Miftahul Hadi</t>
   </si>
   <si>
-    <t>Malam Senin</t>
-  </si>
-  <si>
     <t>Rezky Adistya</t>
   </si>
   <si>
-    <t>Malam Selasa</t>
-  </si>
-  <si>
     <t>Chairid Daha</t>
   </si>
   <si>
-    <t>Malam Rabu</t>
-  </si>
-  <si>
     <t>Budi Prabowo</t>
   </si>
   <si>
     <t>Zakky</t>
-  </si>
-  <si>
-    <t>Muhammad Idris</t>
   </si>
   <si>
     <t>Yuda</t>
@@ -156,13 +135,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -181,17 +159,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,15 +189,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -228,15 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,14 +253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +268,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,15 +289,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -303,29 +297,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,25 +318,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,157 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,21 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,7 +552,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,11 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,22 +617,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,152 +635,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,19 +793,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,18 +1124,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
     <col min="3" max="4" width="23.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
+    <col min="6" max="7" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1191,7 +1173,7 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>45716</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1210,7 +1192,7 @@
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>45717</v>
       </c>
       <c r="C6" s="5"/>
@@ -1223,7 +1205,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1242,7 +1224,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>45719</v>
       </c>
       <c r="C8" s="5"/>
@@ -1255,7 +1237,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1274,7 +1256,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>45721</v>
       </c>
       <c r="C10" s="5"/>
@@ -1287,7 +1269,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1303,7 +1285,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>45723</v>
       </c>
       <c r="C12" s="5"/>
@@ -1316,7 +1298,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1335,7 +1317,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>45725</v>
       </c>
       <c r="C14" s="5"/>
@@ -1343,31 +1325,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>45726</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="7" t="str">
         <f>C15</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>45727</v>
       </c>
       <c r="C16" s="5"/>
@@ -1380,11 +1368,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
@@ -1396,7 +1384,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>45729</v>
       </c>
       <c r="C18" s="5"/>
@@ -1404,31 +1392,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>45730</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="D19" s="7" t="str">
         <f>C19</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>45731</v>
       </c>
       <c r="C20" s="5"/>
@@ -1436,31 +1430,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>45732</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D21" s="7" t="str">
         <f>C21</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>45733</v>
       </c>
       <c r="C22" s="5"/>
@@ -1473,7 +1470,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1492,7 +1489,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>45735</v>
       </c>
       <c r="C24" s="5"/>
@@ -1505,18 +1502,18 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="4">
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
         <v>Ustadz Ngalal</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1524,7 +1521,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>45737</v>
       </c>
       <c r="C26" s="5"/>
@@ -1537,7 +1534,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1556,7 +1553,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>45739</v>
       </c>
       <c r="C28" s="5"/>
@@ -1569,18 +1566,18 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="4">
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
         <v>Ustadz Imanuddin</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1588,7 +1585,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <v>45741</v>
       </c>
       <c r="C30" s="5"/>
@@ -1601,7 +1598,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1620,7 +1617,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="6">
         <v>45743</v>
       </c>
       <c r="C32" s="5"/>
@@ -1633,7 +1630,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="4">
         <v>45744</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1651,7 +1648,7 @@
       <c r="A34" s="5">
         <v>30</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="6">
         <v>45745</v>
       </c>
       <c r="C34" s="5"/>
@@ -1672,502 +1669,405 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="4.14074074074074" customWidth="1"/>
-    <col min="2" max="2" width="8.28888888888889" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="26.4296296296296" customWidth="1"/>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="26.4296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>45007</v>
+        <v>45716</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="6">
-        <v>45008</v>
+        <v>45717</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45718</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45009</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45719</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45720</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>45010</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45721</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45722</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45723</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45011</v>
-      </c>
-      <c r="C9" s="3" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45724</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45725</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45726</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45012</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45727</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45728</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>45013</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="6">
-        <v>45014</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="4">
-        <v>45015</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="6">
-        <v>45016</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="4">
-        <v>45017</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="6">
-        <v>45018</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="4">
-        <v>45019</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>45020</v>
+        <v>45729</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="4">
-        <v>45021</v>
+        <v>45730</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="6">
-        <v>45022</v>
+        <v>45731</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45732</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="4">
-        <v>45023</v>
-      </c>
-      <c r="C21" s="3" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45733</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="3" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45734</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="6">
-        <v>45024</v>
-      </c>
-      <c r="C22" s="5" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45735</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45736</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45737</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45738</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45739</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="4">
+        <v>45740</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45741</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="B31" s="4">
+        <v>45742</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="4">
-        <v>45025</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B32" s="6">
+        <v>45743</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="6">
-        <v>45026</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="B33" s="4">
+        <v>45744</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="4">
-        <v>45027</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="6">
-        <v>45028</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="4">
-        <v>45029</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="6">
-        <v>45030</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="4">
-        <v>45031</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="6">
-        <v>45032</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="4">
-        <v>45033</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="6">
-        <v>45034</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="4">
-        <v>45035</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34" s="5">
         <v>30</v>
       </c>
       <c r="B34" s="6">
-        <v>45036</v>
+        <v>45745</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -53,6 +53,9 @@
     <t>Ustadz Aslam Abu Hanifah</t>
   </si>
   <si>
+    <t>(belum di-wa)</t>
+  </si>
+  <si>
     <t>Ustadz Chairid Daha</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>Ustadz Ngalal</t>
+  </si>
+  <si>
+    <t>(baru sekali)</t>
   </si>
   <si>
     <t>Ustadz Imanuddin</t>
@@ -1126,8 +1132,8 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1264,7 +1270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1279,6 +1285,9 @@
         <f>C11</f>
         <v>Ustadz Aslam Abu Hanifah</v>
       </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5">
@@ -1302,14 +1311,14 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3" t="str">
         <f>C13</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1344,10 +1353,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1363,7 +1372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1372,12 +1381,15 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
         <v>Ustadz Muhammad Asmuni</v>
       </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5">
@@ -1411,10 +1423,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1449,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1474,14 +1486,14 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>C23</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1497,7 +1509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1506,7 +1518,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
@@ -1515,6 +1527,9 @@
       <c r="E25" t="s">
         <v>7</v>
       </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5">
@@ -1561,7 +1576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1570,7 +1585,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
@@ -1578,6 +1593,9 @@
       </c>
       <c r="E29" t="s">
         <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1689,12 +1707,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1718,7 +1736,7 @@
         <v>45716</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1730,7 +1748,7 @@
         <v>45717</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1742,7 +1760,7 @@
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1754,7 +1772,7 @@
         <v>45719</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1766,7 +1784,7 @@
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1778,7 +1796,7 @@
         <v>45721</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1790,7 +1808,7 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1802,7 +1820,7 @@
         <v>45723</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1814,7 +1832,7 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1836,7 +1854,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1848,7 +1866,7 @@
         <v>45727</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1860,7 +1878,7 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1872,7 +1890,7 @@
         <v>45729</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1884,7 +1902,7 @@
         <v>45730</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1896,7 +1914,7 @@
         <v>45731</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1908,7 +1926,7 @@
         <v>45732</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1920,7 +1938,7 @@
         <v>45733</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1932,7 +1950,7 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1954,7 +1972,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1966,7 +1984,7 @@
         <v>45737</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1978,7 +1996,7 @@
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1990,7 +2008,7 @@
         <v>45739</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2002,7 +2020,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2014,7 +2032,7 @@
         <v>45741</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2026,7 +2044,7 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2038,7 +2056,7 @@
         <v>45743</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2050,7 +2068,7 @@
         <v>45744</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2061,7 +2079,7 @@
         <v>45745</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -15,14 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
   <si>
+    <t>Santri</t>
+  </si>
+  <si>
     <t>Masjid Daarut Thoyyibah, Loa Bakung</t>
   </si>
   <si>
+    <t>Raffa</t>
+  </si>
+  <si>
+    <t>Akmal</t>
+  </si>
+  <si>
     <t>Ramadhan ke</t>
   </si>
   <si>
@@ -35,43 +44,55 @@
     <t>Imam</t>
   </si>
   <si>
+    <t>Idris</t>
+  </si>
+  <si>
     <t>Ustadz Andi Iskandar</t>
   </si>
   <si>
     <t>sudah oke</t>
   </si>
   <si>
+    <t>Daffa</t>
+  </si>
+  <si>
+    <t>Ustadz Yasser Hamzah</t>
+  </si>
+  <si>
+    <t>Kholis</t>
+  </si>
+  <si>
+    <t>Ustadz Miftahul Hadi</t>
+  </si>
+  <si>
+    <t>Hanif</t>
+  </si>
+  <si>
     <t>Santri MABAIZ</t>
   </si>
   <si>
-    <t>Ustadz Miftahul Hadi</t>
-  </si>
-  <si>
     <t>Ustadz Wahidi Rahman</t>
   </si>
   <si>
     <t>Ustadz Aslam Abu Hanifah</t>
   </si>
   <si>
-    <t>(belum di-wa)</t>
-  </si>
-  <si>
     <t>Ustadz Chairid Daha</t>
   </si>
   <si>
     <t>sudah dikabarkan</t>
   </si>
   <si>
+    <t>Ustadz Kastiawan</t>
+  </si>
+  <si>
+    <t>Jadi kah ini? Kuhapus chat-nya</t>
+  </si>
+  <si>
+    <t>Ustadz Muhammad Asmuni</t>
+  </si>
+  <si>
     <t>Ustadz Rezky</t>
-  </si>
-  <si>
-    <t>Jadi kah ini? Kuhapus chat-nya</t>
-  </si>
-  <si>
-    <t>Ustadz Muhammad Asmuni</t>
-  </si>
-  <si>
-    <t>Ustadz Kastiawan</t>
   </si>
   <si>
     <t>Ustadz Ngalal</t>
@@ -142,11 +163,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -173,6 +194,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -181,10 +216,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,7 +248,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -212,15 +256,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,26 +293,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,44 +317,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,49 +351,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,133 +513,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +623,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -615,15 +645,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,142 +662,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,13 +820,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,8 +1153,8 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1145,37 +1166,51 @@
     <col min="6" max="7" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="7:7">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1183,17 +1218,20 @@
         <v>45716</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>C5</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>2</v>
@@ -1203,10 +1241,16 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1215,14 +1259,17 @@
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>C7</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1235,7 +1282,7 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1247,14 +1294,14 @@
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>C9</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1267,10 +1314,10 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1279,14 +1326,14 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>C11</f>
         <v>Ustadz Aslam Abu Hanifah</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1299,7 +1346,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1311,14 +1358,14 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="str">
         <f>C13</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1331,7 +1378,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1343,20 +1390,20 @@
         <v>45726</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>C15</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1369,10 +1416,10 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1381,14 +1428,14 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
         <v>Ustadz Muhammad Asmuni</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
+      <c r="E17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1401,7 +1448,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1413,20 +1460,20 @@
         <v>45730</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>C19</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1439,7 +1486,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1451,17 +1498,17 @@
         <v>45732</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>C21</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1474,7 +1521,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1486,14 +1533,14 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>C23</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1506,7 +1553,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1518,17 +1565,17 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
         <v>Ustadz Ngalal</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1541,7 +1588,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1553,14 +1600,14 @@
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>C27</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1573,7 +1620,7 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1585,17 +1632,17 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
         <v>Ustadz Imanuddin</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1608,7 +1655,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1620,14 +1667,14 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3" t="str">
         <f>C31</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1640,7 +1687,7 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1652,14 +1699,14 @@
         <v>45744</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3" t="str">
         <f>C33</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1671,7 +1718,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1737,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1707,25 +1754,25 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1736,7 +1783,7 @@
         <v>45716</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1748,7 +1795,7 @@
         <v>45717</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1760,7 +1807,7 @@
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1772,7 +1819,7 @@
         <v>45719</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1784,7 +1831,7 @@
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1796,7 +1843,7 @@
         <v>45721</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1808,7 +1855,7 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1820,7 +1867,7 @@
         <v>45723</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1832,7 +1879,7 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1854,7 +1901,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1866,7 +1913,7 @@
         <v>45727</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1878,7 +1925,7 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1890,7 +1937,7 @@
         <v>45729</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1902,7 +1949,7 @@
         <v>45730</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1914,7 +1961,7 @@
         <v>45731</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1926,7 +1973,7 @@
         <v>45732</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1938,7 +1985,7 @@
         <v>45733</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1950,7 +1997,7 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1972,7 +2019,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1984,7 +2031,7 @@
         <v>45737</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1996,7 +2043,7 @@
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2008,7 +2055,7 @@
         <v>45739</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2020,7 +2067,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2032,7 +2079,7 @@
         <v>45741</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2044,7 +2091,7 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2056,7 +2103,7 @@
         <v>45743</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2068,7 +2115,7 @@
         <v>45744</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2079,7 +2126,7 @@
         <v>45745</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1153,8 +1153,8 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1435,7 +1435,7 @@
         <v>Ustadz Muhammad Asmuni</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4">

--- a/file.xlsx
+++ b/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -29,9 +29,15 @@
     <t>Raffa</t>
   </si>
   <si>
+    <t>Ananda Raffa</t>
+  </si>
+  <si>
     <t>Akmal</t>
   </si>
   <si>
+    <t>Ananda Akmal</t>
+  </si>
+  <si>
     <t>Ramadhan ke</t>
   </si>
   <si>
@@ -47,6 +53,9 @@
     <t>Idris</t>
   </si>
   <si>
+    <t>Ananda Idris</t>
+  </si>
+  <si>
     <t>Ustadz Andi Iskandar</t>
   </si>
   <si>
@@ -56,19 +65,28 @@
     <t>Daffa</t>
   </si>
   <si>
+    <t>Ananda Daffa</t>
+  </si>
+  <si>
     <t>Ustadz Yasser Hamzah</t>
   </si>
   <si>
     <t>Kholis</t>
   </si>
   <si>
+    <t>Ananda Kholis</t>
+  </si>
+  <si>
     <t>Ustadz Miftahul Hadi</t>
   </si>
   <si>
     <t>Hanif</t>
   </si>
   <si>
-    <t>Santri MABAIZ</t>
+    <t>Ananda Hanif</t>
+  </si>
+  <si>
+    <t>Ustadz Zaky</t>
   </si>
   <si>
     <t>Ustadz Wahidi Rahman</t>
@@ -83,12 +101,6 @@
     <t>sudah dikabarkan</t>
   </si>
   <si>
-    <t>Ustadz Kastiawan</t>
-  </si>
-  <si>
-    <t>Jadi kah ini? Kuhapus chat-nya</t>
-  </si>
-  <si>
     <t>Ustadz Muhammad Asmuni</t>
   </si>
   <si>
@@ -102,6 +114,9 @@
   </si>
   <si>
     <t>Ustadz Imanuddin</t>
+  </si>
+  <si>
+    <t>Ustadz Latip</t>
   </si>
   <si>
     <t>Abdul Rifai 3x harinya Senin atau kamis</t>
@@ -164,9 +179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -195,9 +210,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,8 +239,32 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,10 +279,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,61 +308,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,7 +325,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,13 +339,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,7 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,19 +372,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,13 +462,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,25 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,109 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,17 +569,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,11 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +632,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,32 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -662,142 +671,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,8 +838,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1151,13 +1169,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
@@ -1166,7 +1184,7 @@
     <col min="6" max="7" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,8 +1194,9 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1187,30 +1206,39 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="7:7">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="7:8">
       <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1218,20 +1246,23 @@
         <v>45716</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>C5</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>2</v>
@@ -1241,16 +1272,19 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1259,17 +1293,20 @@
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>C7</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1282,7 +1319,7 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1294,14 +1331,14 @@
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>C9</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1313,8 +1350,8 @@
         <v>45721</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1326,14 +1363,14 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>C11</f>
         <v>Ustadz Aslam Abu Hanifah</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1345,8 +1382,8 @@
         <v>45723</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
+      <c r="D12" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1358,14 +1395,14 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="str">
         <f>C13</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1377,11 +1414,11 @@
         <v>45725</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1389,21 +1426,15 @@
       <c r="B15" s="4">
         <v>45726</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7" t="str">
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="str">
         <f>C15</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1415,8 +1446,8 @@
         <v>45727</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>17</v>
+      <c r="D16" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1428,14 +1459,14 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
         <v>Ustadz Muhammad Asmuni</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1447,11 +1478,11 @@
         <v>45729</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1459,21 +1490,15 @@
       <c r="B19" s="4">
         <v>45730</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="7" t="str">
+      <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="9" t="str">
         <f>C19</f>
-        <v>Ustadz Wahidi Rahman</v>
+        <v>Ustadz Rezky</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1485,11 +1510,11 @@
         <v>45731</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="D20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1497,18 +1522,15 @@
       <c r="B21" s="4">
         <v>45732</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="7" t="str">
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="str">
         <f>C21</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1520,8 +1542,8 @@
         <v>45733</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>17</v>
+      <c r="D22" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1533,14 +1555,14 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>C23</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1552,8 +1574,8 @@
         <v>45735</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
+      <c r="D24" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1565,17 +1587,17 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
         <v>Ustadz Ngalal</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1587,8 +1609,8 @@
         <v>45737</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>17</v>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1600,14 +1622,14 @@
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>C27</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1619,8 +1641,8 @@
         <v>45739</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>17</v>
+      <c r="D28" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1632,17 +1654,17 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
         <v>Ustadz Imanuddin</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1654,8 +1676,8 @@
         <v>45741</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>17</v>
+      <c r="D30" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1667,14 +1689,14 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D31" s="3" t="str">
         <f>C31</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1686,8 +1708,8 @@
         <v>45743</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>17</v>
+      <c r="D32" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1699,14 +1721,14 @@
         <v>45744</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="str">
         <f>C33</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1718,7 +1740,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1754,25 +1776,25 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1783,7 +1805,7 @@
         <v>45716</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1795,7 +1817,7 @@
         <v>45717</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1807,7 +1829,7 @@
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1819,7 +1841,7 @@
         <v>45719</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1831,7 +1853,7 @@
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1843,7 +1865,7 @@
         <v>45721</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1855,7 +1877,7 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1867,7 +1889,7 @@
         <v>45723</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1879,7 +1901,7 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1901,7 +1923,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1913,7 +1935,7 @@
         <v>45727</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1925,7 +1947,7 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1937,7 +1959,7 @@
         <v>45729</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1949,7 +1971,7 @@
         <v>45730</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1961,7 +1983,7 @@
         <v>45731</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1973,7 +1995,7 @@
         <v>45732</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1985,7 +2007,7 @@
         <v>45733</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1997,7 +2019,7 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2019,7 +2041,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2031,7 +2053,7 @@
         <v>45737</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2043,7 +2065,7 @@
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2055,7 +2077,7 @@
         <v>45739</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2067,7 +2089,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2079,7 +2101,7 @@
         <v>45741</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2091,7 +2113,7 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2103,7 +2125,7 @@
         <v>45743</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2115,7 +2137,7 @@
         <v>45744</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2126,7 +2148,7 @@
         <v>45745</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -101,19 +101,22 @@
     <t>sudah dikabarkan</t>
   </si>
   <si>
+    <t>Ustadz Rezky</t>
+  </si>
+  <si>
     <t>Ustadz Muhammad Asmuni</t>
   </si>
   <si>
-    <t>Ustadz Rezky</t>
+    <t>Ustadz Iman</t>
   </si>
   <si>
     <t>Ustadz Ngalal</t>
   </si>
   <si>
+    <t>Ustadz Imanuddin</t>
+  </si>
+  <si>
     <t>(baru sekali)</t>
-  </si>
-  <si>
-    <t>Ustadz Imanuddin</t>
   </si>
   <si>
     <t>Ustadz Latip</t>
@@ -209,25 +212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,9 +235,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,17 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,21 +284,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,25 +319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +339,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -360,25 +363,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,73 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,79 +525,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +572,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -584,34 +611,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -634,6 +643,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -642,171 +669,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,9 +842,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1194,7 +1194,7 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1214,7 +1214,7 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
         <v>45723</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1426,15 +1426,18 @@
       <c r="B15" s="4">
         <v>45726</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9" t="str">
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="8" t="str">
         <f>C15</f>
-        <v>Ustadz Andi Iskandar</v>
+        <v>Ustadz Rezky</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1459,7 +1462,7 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
@@ -1490,10 +1493,10 @@
       <c r="B19" s="4">
         <v>45730</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="9" t="str">
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="str">
         <f>C19</f>
         <v>Ustadz Rezky</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1522,15 +1525,18 @@
       <c r="B21" s="4">
         <v>45732</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="9" t="str">
+      <c r="D21" s="8" t="str">
         <f>C21</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1574,11 +1580,11 @@
         <v>45735</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1587,7 +1593,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
@@ -1596,9 +1602,6 @@
       <c r="E25" t="s">
         <v>14</v>
       </c>
-      <c r="F25" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5">
@@ -1664,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1740,7 +1743,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1776,12 +1779,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1805,7 +1808,7 @@
         <v>45716</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1817,7 +1820,7 @@
         <v>45717</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1829,7 +1832,7 @@
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1841,7 +1844,7 @@
         <v>45719</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1853,7 +1856,7 @@
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1865,7 +1868,7 @@
         <v>45721</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1877,7 +1880,7 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1889,7 +1892,7 @@
         <v>45723</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1901,7 +1904,7 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1923,7 +1926,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1935,7 +1938,7 @@
         <v>45727</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1947,7 +1950,7 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1959,7 +1962,7 @@
         <v>45729</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1971,7 +1974,7 @@
         <v>45730</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1983,7 +1986,7 @@
         <v>45731</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1995,7 +1998,7 @@
         <v>45732</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2007,7 +2010,7 @@
         <v>45733</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2019,7 +2022,7 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2041,7 +2044,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2053,7 +2056,7 @@
         <v>45737</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2065,7 +2068,7 @@
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2077,7 +2080,7 @@
         <v>45739</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2089,7 +2092,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2101,7 +2104,7 @@
         <v>45741</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2113,7 +2116,7 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2125,7 +2128,7 @@
         <v>45743</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2137,7 +2140,7 @@
         <v>45744</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2148,7 +2151,7 @@
         <v>45745</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -128,52 +128,55 @@
     <t>Musholla Baitul Hilmi, Jalan Monas</t>
   </si>
   <si>
+    <t>Abdul Latip</t>
+  </si>
+  <si>
+    <t>Andi Iskandar</t>
+  </si>
+  <si>
+    <t>Aswan</t>
+  </si>
+  <si>
+    <t>Abdul Rifai</t>
+  </si>
+  <si>
+    <t>Budi Prabowo</t>
+  </si>
+  <si>
+    <t>Chairid Daha</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Imanuddin</t>
+  </si>
+  <si>
+    <t>Komatsu Kumala Hastin</t>
+  </si>
+  <si>
+    <t>Lukman</t>
+  </si>
+  <si>
+    <t>Miftahul Hadi</t>
+  </si>
+  <si>
+    <t>Rezky Adistya</t>
+  </si>
+  <si>
+    <t>Wachyu</t>
+  </si>
+  <si>
+    <t>Wahidi Rahman</t>
+  </si>
+  <si>
+    <t>Yuda</t>
+  </si>
+  <si>
+    <t>Zakky</t>
+  </si>
+  <si>
     <t>Zen</t>
-  </si>
-  <si>
-    <t>Andi Iskandar</t>
-  </si>
-  <si>
-    <t>Wahidi Rahman</t>
-  </si>
-  <si>
-    <t>Miftahul Hadi</t>
-  </si>
-  <si>
-    <t>Rezky Adistya</t>
-  </si>
-  <si>
-    <t>Chairid Daha</t>
-  </si>
-  <si>
-    <t>Budi Prabowo</t>
-  </si>
-  <si>
-    <t>Zakky</t>
-  </si>
-  <si>
-    <t>Yuda</t>
-  </si>
-  <si>
-    <t>Ibrahim</t>
-  </si>
-  <si>
-    <t>Wachyu</t>
-  </si>
-  <si>
-    <t>Imanuddin</t>
-  </si>
-  <si>
-    <t>Lukman</t>
-  </si>
-  <si>
-    <t>Abdul Latip</t>
-  </si>
-  <si>
-    <t>Komatsu Kumala Hastin</t>
-  </si>
-  <si>
-    <t>Aswan</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1174,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1761,8 +1764,8 @@
   <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1770,6 +1773,7 @@
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="26.4296296296296" customWidth="1"/>
+    <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1800,18 +1804,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="4">
         <v>45716</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>2</v>
@@ -1819,11 +1824,12 @@
       <c r="B6" s="6">
         <v>45717</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1831,11 +1837,12 @@
       <c r="B7" s="4">
         <v>45718</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1846,8 +1853,11 @@
       <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1855,11 +1865,12 @@
       <c r="B9" s="4">
         <v>45720</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1867,11 +1878,12 @@
       <c r="B10" s="6">
         <v>45721</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1879,11 +1891,12 @@
       <c r="B11" s="4">
         <v>45722</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1891,11 +1904,12 @@
       <c r="B12" s="6">
         <v>45723</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1903,11 +1917,12 @@
       <c r="B13" s="4">
         <v>45724</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1916,8 +1931,11 @@
         <v>45725</v>
       </c>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1925,11 +1943,12 @@
       <c r="B15" s="4">
         <v>45726</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1937,11 +1956,12 @@
       <c r="B16" s="6">
         <v>45727</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="5"/>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1949,11 +1969,12 @@
       <c r="B17" s="4">
         <v>45728</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1962,10 +1983,13 @@
         <v>45729</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1973,11 +1997,12 @@
       <c r="B19" s="4">
         <v>45730</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1985,11 +2010,12 @@
       <c r="B20" s="6">
         <v>45731</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="5"/>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1997,11 +2023,12 @@
       <c r="B21" s="4">
         <v>45732</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2009,11 +2036,10 @@
       <c r="B22" s="6">
         <v>45733</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2021,11 +2047,10 @@
       <c r="B23" s="4">
         <v>45734</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2034,8 +2059,9 @@
         <v>45735</v>
       </c>
       <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2043,11 +2069,10 @@
       <c r="B25" s="4">
         <v>45736</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2055,11 +2080,10 @@
       <c r="B26" s="6">
         <v>45737</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2067,11 +2091,10 @@
       <c r="B27" s="4">
         <v>45738</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2079,11 +2102,10 @@
       <c r="B28" s="6">
         <v>45739</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2092,10 +2114,11 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2103,11 +2126,10 @@
       <c r="B30" s="6">
         <v>45741</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="5"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2115,11 +2137,10 @@
       <c r="B31" s="4">
         <v>45742</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2127,11 +2148,10 @@
       <c r="B32" s="6">
         <v>45743</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2139,22 +2159,23 @@
       <c r="B33" s="4">
         <v>45744</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="5">
         <v>30</v>
       </c>
       <c r="B34" s="6">
         <v>45745</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="C34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="E5:E33">
+    <sortCondition ref="E5"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="1" r:id="rId1"/>
-    <sheet name="Pak Gatot" sheetId="2" r:id="rId2"/>
+    <sheet name="Olah Pak Gatot" sheetId="3" r:id="rId2"/>
+    <sheet name="Pak Gatot" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="96">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -50,6 +51,12 @@
     <t>Imam</t>
   </si>
   <si>
+    <t>Konfirmasi DT</t>
+  </si>
+  <si>
+    <t>Pak Gatot</t>
+  </si>
+  <si>
     <t>Idris</t>
   </si>
   <si>
@@ -62,6 +69,9 @@
     <t>sudah oke</t>
   </si>
   <si>
+    <t>Abdul Latip</t>
+  </si>
+  <si>
     <t>Daffa</t>
   </si>
   <si>
@@ -71,6 +81,9 @@
     <t>Ustadz Yasser Hamzah</t>
   </si>
   <si>
+    <t>Andi Iskandar</t>
+  </si>
+  <si>
     <t>Kholis</t>
   </si>
   <si>
@@ -80,6 +93,9 @@
     <t>Ustadz Miftahul Hadi</t>
   </si>
   <si>
+    <t>Aswan</t>
+  </si>
+  <si>
     <t>Hanif</t>
   </si>
   <si>
@@ -89,94 +105,205 @@
     <t>Ustadz Zaky</t>
   </si>
   <si>
+    <t>Abdul Rifai</t>
+  </si>
+  <si>
+    <t>Budi Prabowo</t>
+  </si>
+  <si>
     <t>Ustadz Wahidi Rahman</t>
   </si>
   <si>
+    <t>Chairid Daha</t>
+  </si>
+  <si>
     <t>Ustadz Aslam Abu Hanifah</t>
   </si>
   <si>
+    <t>Lukman</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Imanuddin</t>
+  </si>
+  <si>
     <t>Ustadz Chairid Daha</t>
   </si>
   <si>
     <t>sudah dikabarkan</t>
   </si>
   <si>
+    <t>Komatsu Kumala Hastin</t>
+  </si>
+  <si>
     <t>Ustadz Rezky</t>
   </si>
   <si>
+    <t>Miftahul Hadi</t>
+  </si>
+  <si>
+    <t>Rezky Adistya</t>
+  </si>
+  <si>
     <t>Ustadz Muhammad Asmuni</t>
   </si>
   <si>
+    <t>Wachyu</t>
+  </si>
+  <si>
+    <t>Wahidi Rahman</t>
+  </si>
+  <si>
+    <t>Yuda</t>
+  </si>
+  <si>
+    <t>Zakky</t>
+  </si>
+  <si>
+    <t>Zen</t>
+  </si>
+  <si>
     <t>Ustadz Iman</t>
   </si>
   <si>
+    <t>Ananda Habib</t>
+  </si>
+  <si>
     <t>Ustadz Ngalal</t>
   </si>
   <si>
+    <t>Ananda Royyan</t>
+  </si>
+  <si>
+    <t>Alumni sepuluh malam terakhir</t>
+  </si>
+  <si>
+    <t>Ananda Zuhdi</t>
+  </si>
+  <si>
     <t>Ustadz Imanuddin</t>
   </si>
   <si>
     <t>(baru sekali)</t>
   </si>
   <si>
+    <t>Ananda Firman</t>
+  </si>
+  <si>
+    <t>Ananda Hasyim</t>
+  </si>
+  <si>
     <t>Ustadz Latip</t>
   </si>
   <si>
+    <t>namaPanggilan</t>
+  </si>
+  <si>
+    <t>nomorWa</t>
+  </si>
+  <si>
+    <t>ramadhanPertama</t>
+  </si>
+  <si>
+    <t>tanggalPertama</t>
+  </si>
+  <si>
+    <t>ramadhanKedua</t>
+  </si>
+  <si>
+    <t>tanggalKedua</t>
+  </si>
+  <si>
+    <t>Latip</t>
+  </si>
+  <si>
+    <t>+62 821-2322-6368</t>
+  </si>
+  <si>
+    <t>Ustadz Iskandar</t>
+  </si>
+  <si>
+    <t>+62 822-5499-1016</t>
+  </si>
+  <si>
+    <t>Mas Aswan</t>
+  </si>
+  <si>
+    <t>+62 823-2004-0021</t>
+  </si>
+  <si>
+    <t>Ustadz Budi</t>
+  </si>
+  <si>
+    <t>+62 812-5804-5853</t>
+  </si>
+  <si>
+    <t>Ustadz Chairid</t>
+  </si>
+  <si>
+    <t>+62 813-4145-9342</t>
+  </si>
+  <si>
+    <t>+62 851-5695-2623</t>
+  </si>
+  <si>
+    <t>Mas Baim</t>
+  </si>
+  <si>
+    <t>+62 853-8889-8918</t>
+  </si>
+  <si>
+    <t>+62 822-7418-0206</t>
+  </si>
+  <si>
+    <t>Komatsu</t>
+  </si>
+  <si>
+    <t>+62 822-5282-6688</t>
+  </si>
+  <si>
+    <t>Mas Lukman</t>
+  </si>
+  <si>
+    <t>+62 857-5422-7966</t>
+  </si>
+  <si>
+    <t>Ustadz Miftah</t>
+  </si>
+  <si>
+    <t>+62 822-5130-3132</t>
+  </si>
+  <si>
+    <t>+62 813-5165-5536</t>
+  </si>
+  <si>
+    <t>Mas Wachyu</t>
+  </si>
+  <si>
+    <t>+62 822-5506-5550</t>
+  </si>
+  <si>
+    <t>Ustadz Wahidi</t>
+  </si>
+  <si>
+    <t>+62 853-4580-0531</t>
+  </si>
+  <si>
+    <t>Mas Yuda</t>
+  </si>
+  <si>
+    <t>+62 898-5520-616</t>
+  </si>
+  <si>
+    <t>+62 813-2469-8218</t>
+  </si>
+  <si>
     <t>Abdul Rifai 3x harinya Senin atau kamis</t>
   </si>
   <si>
     <t>Musholla Baitul Hilmi, Jalan Monas</t>
-  </si>
-  <si>
-    <t>Abdul Latip</t>
-  </si>
-  <si>
-    <t>Andi Iskandar</t>
-  </si>
-  <si>
-    <t>Aswan</t>
-  </si>
-  <si>
-    <t>Abdul Rifai</t>
-  </si>
-  <si>
-    <t>Budi Prabowo</t>
-  </si>
-  <si>
-    <t>Chairid Daha</t>
-  </si>
-  <si>
-    <t>Ibrahim</t>
-  </si>
-  <si>
-    <t>Imanuddin</t>
-  </si>
-  <si>
-    <t>Komatsu Kumala Hastin</t>
-  </si>
-  <si>
-    <t>Lukman</t>
-  </si>
-  <si>
-    <t>Miftahul Hadi</t>
-  </si>
-  <si>
-    <t>Rezky Adistya</t>
-  </si>
-  <si>
-    <t>Wachyu</t>
-  </si>
-  <si>
-    <t>Wahidi Rahman</t>
-  </si>
-  <si>
-    <t>Yuda</t>
-  </si>
-  <si>
-    <t>Zakky</t>
-  </si>
-  <si>
-    <t>Zen</t>
   </si>
 </sst>
 </file>
@@ -185,10 +312,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -207,19 +334,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,14 +346,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,17 +357,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,7 +387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -285,23 +394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,30 +411,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,8 +440,45 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,7 +493,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,19 +607,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,43 +637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,67 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,31 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +708,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,45 +727,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -653,11 +756,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,157 +781,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,10 +977,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1172,56 +1314,68 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
     <col min="3" max="4" width="23.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
-    <col min="6" max="7" width="14.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="23.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="26.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="23.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="15.4444444444444" customWidth="1"/>
+    <col min="10" max="11" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="G1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="G2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="7:8">
-      <c r="G3" t="s">
+    <row r="3" spans="11:12">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="L3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1234,14 +1388,25 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1249,23 +1414,33 @@
         <v>45716</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>C5</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>2</v>
@@ -1275,19 +1450,29 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1296,23 +1481,33 @@
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>C7</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1322,10 +1517,18 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1334,17 +1537,27 @@
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>C9</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1353,11 +1566,19 @@
         <v>45721</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1366,17 +1587,27 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>C11</f>
         <v>Ustadz Aslam Abu Hanifah</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1388,8 +1619,16 @@
       <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12"/>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1398,17 +1637,27 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="str">
         <f>C13</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1417,11 +1666,19 @@
         <v>45725</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14"/>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1429,21 +1686,30 @@
       <c r="B15" s="4">
         <v>45726</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="8" t="str">
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="str">
         <f>C15</f>
         <v>Ustadz Rezky</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1452,11 +1718,19 @@
         <v>45727</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1465,17 +1739,27 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
         <v>Ustadz Muhammad Asmuni</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1484,11 +1768,19 @@
         <v>45729</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1496,18 +1788,27 @@
       <c r="B19" s="4">
         <v>45730</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8" t="str">
+      <c r="C19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="9" t="str">
         <f>C19</f>
         <v>Ustadz Rezky</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1516,11 +1817,19 @@
         <v>45731</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1528,21 +1837,31 @@
       <c r="B21" s="4">
         <v>45732</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8" t="str">
+      <c r="C21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="9" t="str">
         <f>C21</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1551,11 +1870,17 @@
         <v>45733</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1564,17 +1889,25 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>C23</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1584,10 +1917,16 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1596,17 +1935,25 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
         <v>Ustadz Ngalal</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1615,11 +1962,19 @@
         <v>45737</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1628,17 +1983,25 @@
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>C27</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1647,11 +2010,17 @@
         <v>45739</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="D28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1660,20 +2029,28 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
         <v>Ustadz Imanuddin</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1682,11 +2059,17 @@
         <v>45741</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="D30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1695,17 +2078,25 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D31" s="3" t="str">
         <f>C31</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1714,11 +2105,17 @@
         <v>45743</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="D32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1727,17 +2124,25 @@
         <v>45744</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" s="3" t="str">
         <f>C33</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -1746,8 +2151,14 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1762,10 +2173,777 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="20.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="3.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="15.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="20.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="20.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="20.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45716</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45716</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4">
+        <v>45735</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A30" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45717</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>45717</v>
+      </c>
+      <c r="I3" s="3">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4">
+        <v>45736</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45718</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45718</v>
+      </c>
+      <c r="I4" s="3">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4">
+        <v>45737</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45719</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45720</v>
+      </c>
+      <c r="I5" s="3">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45738</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45720</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>45721</v>
+      </c>
+      <c r="I6" s="3">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4">
+        <v>45739</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45721</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="3">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45726</v>
+      </c>
+      <c r="I7" s="3">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
+        <v>45730</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45722</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45723</v>
+      </c>
+      <c r="I8" s="3">
+        <v>27</v>
+      </c>
+      <c r="J8" s="4">
+        <v>45742</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45723</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4">
+        <v>45724</v>
+      </c>
+      <c r="I9" s="3">
+        <v>28</v>
+      </c>
+      <c r="J9" s="4">
+        <v>45743</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45724</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6">
+        <v>45725</v>
+      </c>
+      <c r="I10" s="3">
+        <v>29</v>
+      </c>
+      <c r="J10" s="4">
+        <v>45744</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45725</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45722</v>
+      </c>
+      <c r="I11" s="3">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45745</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45726</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="5">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6">
+        <v>45727</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45727</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="3">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4">
+        <v>45728</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="L13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45728</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="5">
+        <v>26</v>
+      </c>
+      <c r="H14" s="6">
+        <v>45741</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45729</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="5">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6">
+        <v>45731</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45730</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="5">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45732</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="L16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45731</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="5">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45733</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45732</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45733</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45734</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45735</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45736</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45737</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45738</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45739</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45740</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45741</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45742</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45743</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>45744</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45745</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="L2:L30">
+    <sortCondition ref="L2"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1783,12 +2961,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1813,7 +2991,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1826,7 +3004,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1839,7 +3017,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1851,10 +3029,10 @@
         <v>45719</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1867,7 +3045,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1880,7 +3058,7 @@
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1893,7 +3071,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1906,7 +3084,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1919,7 +3097,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1932,7 +3110,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1945,7 +3123,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1958,7 +3136,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1971,7 +3149,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1983,10 +3161,10 @@
         <v>45729</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1999,7 +3177,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2012,7 +3190,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2025,7 +3203,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2114,7 +3292,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E29" s="3"/>
     </row>

--- a/file.xlsx
+++ b/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="97">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Pak Gatot</t>
+  </si>
+  <si>
+    <t>Konfirmasi Pak Gatot</t>
   </si>
   <si>
     <t>Idris</t>
@@ -312,10 +315,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -334,6 +337,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -349,71 +374,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,9 +405,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,24 +421,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,6 +449,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -499,13 +502,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,37 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,18 +622,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -583,6 +634,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -595,13 +652,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,73 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,41 +720,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,17 +770,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,8 +788,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,148 +813,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,16 +1319,17 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
-    <col min="3" max="4" width="23.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="3.22222222222222" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="4.44444444444444" customWidth="1"/>
     <col min="6" max="6" width="23.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="26.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="23.1111111111111" customWidth="1"/>
@@ -1394,16 +1398,18 @@
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1414,30 +1420,30 @@
         <v>45716</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>C5</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1450,26 +1456,28 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1481,30 +1489,30 @@
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>C7</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1517,15 +1525,14 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8"/>
+        <v>29</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1537,24 +1544,24 @@
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>C9</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1567,15 +1574,14 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10"/>
+        <v>28</v>
+      </c>
       <c r="F10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1587,24 +1593,24 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>C11</f>
         <v>Ustadz Aslam Abu Hanifah</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1619,13 +1625,12 @@
       <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E12"/>
       <c r="F12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1637,24 +1642,24 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="str">
         <f>C13</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
         <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1669,13 +1674,12 @@
       <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E14"/>
       <c r="F14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1687,26 +1691,26 @@
         <v>45726</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="9" t="str">
         <f>C15</f>
         <v>Ustadz Rezky</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1719,15 +1723,14 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16"/>
+        <v>15</v>
+      </c>
       <c r="F16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1739,24 +1742,24 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
         <v>Ustadz Muhammad Asmuni</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1769,15 +1772,14 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18"/>
+        <v>20</v>
+      </c>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1789,23 +1791,23 @@
         <v>45730</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="9" t="str">
         <f>C19</f>
         <v>Ustadz Rezky</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1818,15 +1820,14 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20"/>
+        <v>24</v>
+      </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1838,27 +1839,27 @@
         <v>45732</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="9" t="str">
         <f>C21</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1871,11 +1872,10 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22"/>
+        <v>28</v>
+      </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1889,22 +1889,22 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>C23</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1917,11 +1917,10 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24"/>
+        <v>51</v>
+      </c>
       <c r="F24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1935,22 +1934,24 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
         <v>Ustadz Ngalal</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" s="10"/>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1963,16 +1964,14 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26"/>
+        <v>53</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3">
@@ -1983,22 +1982,22 @@
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>C27</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2011,11 +2010,10 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28"/>
+        <v>55</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2029,25 +2027,25 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
         <v>Ustadz Imanuddin</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2060,11 +2058,10 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30"/>
+        <v>58</v>
+      </c>
       <c r="F30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2078,22 +2075,22 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="3" t="str">
         <f>C31</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2106,11 +2103,10 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32"/>
+        <v>59</v>
+      </c>
       <c r="F32" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -2124,22 +2120,22 @@
         <v>45744</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="str">
         <f>C33</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2151,11 +2147,10 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34"/>
+        <v>60</v>
+      </c>
       <c r="F34" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -2175,8 +2170,8 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -2205,25 +2200,25 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2234,13 +2229,13 @@
         <v>45716</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -2255,7 +2250,7 @@
         <v>45735</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2267,13 +2262,13 @@
         <v>45717</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" s="5">
         <v>2</v>
@@ -2288,7 +2283,7 @@
         <v>45736</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2300,13 +2295,13 @@
         <v>45718</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -2321,7 +2316,7 @@
         <v>45737</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2333,13 +2328,13 @@
         <v>45719</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
@@ -2354,7 +2349,7 @@
         <v>45738</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2366,13 +2361,13 @@
         <v>45720</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5">
         <v>6</v>
@@ -2387,7 +2382,7 @@
         <v>45739</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2399,13 +2394,13 @@
         <v>45721</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" s="3">
         <v>11</v>
@@ -2420,7 +2415,7 @@
         <v>45730</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2432,13 +2427,13 @@
         <v>45722</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" s="5">
         <v>8</v>
@@ -2453,7 +2448,7 @@
         <v>45742</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2465,13 +2460,13 @@
         <v>45723</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="3">
         <v>9</v>
@@ -2486,7 +2481,7 @@
         <v>45743</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2498,13 +2493,13 @@
         <v>45724</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" s="5">
         <v>10</v>
@@ -2519,7 +2514,7 @@
         <v>45744</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2531,13 +2526,13 @@
         <v>45725</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" s="3">
         <v>7</v>
@@ -2552,7 +2547,7 @@
         <v>45745</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2564,13 +2559,13 @@
         <v>45726</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="5">
         <v>12</v>
@@ -2581,7 +2576,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
       <c r="L12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2593,13 +2588,13 @@
         <v>45727</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3">
         <v>13</v>
@@ -2610,7 +2605,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
       <c r="L13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2622,13 +2617,13 @@
         <v>45728</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="5">
         <v>26</v>
@@ -2639,7 +2634,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
       <c r="L14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2651,13 +2646,13 @@
         <v>45729</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" s="5">
         <v>16</v>
@@ -2668,7 +2663,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
       <c r="L15" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2680,13 +2675,13 @@
         <v>45730</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="5">
         <v>17</v>
@@ -2697,7 +2692,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="4"/>
       <c r="L16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2709,13 +2704,13 @@
         <v>45731</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="5">
         <v>18</v>
@@ -2726,7 +2721,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
       <c r="L17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2738,11 +2733,11 @@
         <v>45732</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2754,10 +2749,10 @@
         <v>45733</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2769,10 +2764,10 @@
         <v>45734</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2784,10 +2779,10 @@
         <v>45735</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2799,10 +2794,10 @@
         <v>45736</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2814,10 +2809,10 @@
         <v>45737</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2829,10 +2824,10 @@
         <v>45738</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2844,10 +2839,10 @@
         <v>45739</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2859,10 +2854,10 @@
         <v>45740</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2874,7 +2869,7 @@
         <v>45741</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7"/>
     </row>
@@ -2887,7 +2882,7 @@
         <v>45742</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -2900,7 +2895,7 @@
         <v>45743</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L29" s="3"/>
     </row>
@@ -2913,7 +2908,7 @@
         <v>45744</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -2925,7 +2920,7 @@
         <v>45745</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2961,12 +2956,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2991,7 +2986,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3004,7 +2999,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3017,7 +3012,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3029,10 +3024,10 @@
         <v>45719</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3045,7 +3040,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3071,7 +3066,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3084,7 +3079,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3097,7 +3092,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3110,7 +3105,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3123,7 +3118,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3136,7 +3131,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3149,7 +3144,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3161,10 +3156,10 @@
         <v>45729</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3177,7 +3172,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3190,7 +3185,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3203,7 +3198,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3292,7 +3287,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="3"/>
     </row>

--- a/file.xlsx
+++ b/file.xlsx
@@ -7,16 +7,17 @@
     <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
-    <sheet name="DT" sheetId="1" r:id="rId1"/>
-    <sheet name="Olah Pak Gatot" sheetId="3" r:id="rId2"/>
-    <sheet name="Pak Gatot" sheetId="2" r:id="rId3"/>
+    <sheet name="DT dan Pak Gatot" sheetId="1" r:id="rId1"/>
+    <sheet name="Santri" sheetId="4" r:id="rId2"/>
+    <sheet name="Olah Pak Gatot (bukan fix)" sheetId="3" r:id="rId3"/>
+    <sheet name="Pak Gatot" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="103">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -117,6 +118,9 @@
     <t>Ustadz Wahidi Rahman</t>
   </si>
   <si>
+    <t>sudah dikabarkan</t>
+  </si>
+  <si>
     <t>Chairid Daha</t>
   </si>
   <si>
@@ -135,9 +139,6 @@
     <t>Ustadz Chairid Daha</t>
   </si>
   <si>
-    <t>sudah dikabarkan</t>
-  </si>
-  <si>
     <t>Komatsu Kumala Hastin</t>
   </si>
   <si>
@@ -180,6 +181,9 @@
     <t>Ananda Royyan</t>
   </si>
   <si>
+    <t>insya Allah</t>
+  </si>
+  <si>
     <t>Alumni sepuluh malam terakhir</t>
   </si>
   <si>
@@ -199,6 +203,21 @@
   </si>
   <si>
     <t>Ustadz Latip</t>
+  </si>
+  <si>
+    <t>Ananda Habib (Alumni)</t>
+  </si>
+  <si>
+    <t>Ananda Royyan (Alumni)</t>
+  </si>
+  <si>
+    <t>Ananda Zuhdi (Alumni)</t>
+  </si>
+  <si>
+    <t>Ananda Firman (Alumni)</t>
+  </si>
+  <si>
+    <t>nggak siap</t>
   </si>
   <si>
     <t>namaPanggilan</t>
@@ -315,10 +334,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -345,15 +364,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,8 +395,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,23 +441,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -406,7 +449,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,10 +485,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,44 +497,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -502,19 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,13 +533,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,25 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,43 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,13 +617,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,13 +671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,13 +683,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,11 +730,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,47 +793,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -808,147 +816,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,17 +1005,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1319,22 +1338,23 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="3.22222222222222" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="4.44444444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="26.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="23.1111111111111" customWidth="1"/>
+    <col min="3" max="4" width="23.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="20.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="26.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="15.4444444444444" customWidth="1"/>
-    <col min="10" max="11" width="14.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="11.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="5.88888888888889" customWidth="1"/>
+    <col min="12" max="12" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1351,7 +1371,7 @@
       <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="12"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1375,7 +1395,7 @@
       <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1408,7 +1428,7 @@
       <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1432,7 +1452,9 @@
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1442,7 +1464,7 @@
       <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1464,7 +1486,7 @@
       <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1476,7 +1498,7 @@
       <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1501,7 +1523,9 @@
       <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1511,7 +1535,7 @@
       <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1530,7 +1554,9 @@
       <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1556,9 +1582,11 @@
       <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1577,9 +1605,11 @@
         <v>28</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1593,7 +1623,7 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>C11</f>
@@ -1603,11 +1633,13 @@
         <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -1626,11 +1658,13 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1642,24 +1676,26 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="str">
         <f>C13</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1677,9 +1713,11 @@
       <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1690,10 +1728,10 @@
       <c r="B15" s="4">
         <v>45726</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="9" t="str">
+      <c r="D15" s="12" t="str">
         <f>C15</f>
         <v>Ustadz Rezky</v>
       </c>
@@ -1703,13 +1741,16 @@
       <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="G15" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1728,7 +1769,9 @@
       <c r="F16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" s="3" t="s">
         <v>43</v>
       </c>
@@ -1754,7 +1797,9 @@
       <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>45</v>
       </c>
@@ -1777,7 +1822,9 @@
       <c r="F18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" s="3" t="s">
         <v>46</v>
       </c>
@@ -1790,10 +1837,10 @@
       <c r="B19" s="4">
         <v>45730</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="9" t="str">
+      <c r="D19" s="12" t="str">
         <f>C19</f>
         <v>Ustadz Rezky</v>
       </c>
@@ -1802,6 +1849,9 @@
       </c>
       <c r="F19" s="5" t="s">
         <v>27</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>47</v>
@@ -1825,7 +1875,9 @@
       <c r="F20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>48</v>
       </c>
@@ -1838,10 +1890,10 @@
       <c r="B21" s="4">
         <v>45732</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="9" t="str">
+      <c r="D21" s="12" t="str">
         <f>C21</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
@@ -1851,7 +1903,9 @@
       <c r="F21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1877,8 +1931,10 @@
       <c r="F22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3">
@@ -1889,22 +1945,24 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>C23</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" s="10"/>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1922,8 +1980,10 @@
       <c r="F24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3">
@@ -1969,8 +2029,11 @@
       <c r="F26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>54</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1994,7 +2057,9 @@
       <c r="F27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H27" s="10"/>
       <c r="I27" t="s">
         <v>17</v>
@@ -2010,13 +2075,15 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3">
@@ -2027,7 +2094,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
@@ -2039,13 +2106,15 @@
       <c r="F29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" s="10"/>
       <c r="I29" t="s">
         <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2058,13 +2127,15 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3">
@@ -2085,9 +2156,11 @@
         <v>17</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" s="10"/>
       <c r="I31" t="s">
         <v>17</v>
@@ -2103,13 +2176,15 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
@@ -2132,7 +2207,9 @@
       <c r="F33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" s="10"/>
       <c r="I33" t="s">
         <v>17</v>
@@ -2147,13 +2224,15 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2168,10 +2247,344 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="15.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="20.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="26.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="11.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="5.88888888888889" customWidth="1"/>
+    <col min="11" max="11" width="12.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="10:11">
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45721</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45723</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45725</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45727</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45729</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45731</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45733</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45735</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45737</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45739</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45741</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45743</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -2200,22 +2613,22 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>18</v>
@@ -2232,10 +2645,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -2265,10 +2678,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G3" s="5">
         <v>2</v>
@@ -2298,10 +2711,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -2331,10 +2744,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
@@ -2364,10 +2777,10 @@
         <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" s="5">
         <v>6</v>
@@ -2394,13 +2807,13 @@
         <v>45721</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" s="3">
         <v>11</v>
@@ -2427,13 +2840,13 @@
         <v>45722</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G8" s="5">
         <v>8</v>
@@ -2460,13 +2873,13 @@
         <v>45723</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G9" s="3">
         <v>9</v>
@@ -2481,7 +2894,7 @@
         <v>45743</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2493,13 +2906,13 @@
         <v>45724</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G10" s="5">
         <v>10</v>
@@ -2514,7 +2927,7 @@
         <v>45744</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2529,10 +2942,10 @@
         <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G11" s="3">
         <v>7</v>
@@ -2562,10 +2975,10 @@
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G12" s="5">
         <v>12</v>
@@ -2594,7 +3007,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G13" s="3">
         <v>13</v>
@@ -2605,7 +3018,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
       <c r="L13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2620,10 +3033,10 @@
         <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G14" s="5">
         <v>26</v>
@@ -2634,7 +3047,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
       <c r="L14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2649,10 +3062,10 @@
         <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G15" s="5">
         <v>16</v>
@@ -2663,7 +3076,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
       <c r="L15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2678,10 +3091,10 @@
         <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G16" s="5">
         <v>17</v>
@@ -2692,7 +3105,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="4"/>
       <c r="L16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2710,7 +3123,7 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G17" s="5">
         <v>18</v>
@@ -2752,7 +3165,7 @@
         <v>48</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2767,7 +3180,7 @@
         <v>49</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2839,7 +3252,7 @@
         <v>45739</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>47</v>
@@ -2882,7 +3295,7 @@
         <v>45742</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -2895,7 +3308,7 @@
         <v>45743</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L29" s="3"/>
     </row>
@@ -2920,7 +3333,7 @@
         <v>45745</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2932,12 +3345,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2956,12 +3369,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3040,7 +3453,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3066,7 +3479,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3079,7 +3492,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3105,7 +3518,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">

--- a/file.xlsx
+++ b/file.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="105">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -172,6 +172,9 @@
     <t>Ustadz Iman</t>
   </si>
   <si>
+    <t>Ananda Hazwan</t>
+  </si>
+  <si>
     <t>Ananda Habib</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>Ustadz Latip</t>
+  </si>
+  <si>
+    <t>Ananda Hazwan (Alumni)</t>
   </si>
   <si>
     <t>Ananda Habib (Alumni)</t>
@@ -334,10 +340,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -364,14 +370,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -381,30 +379,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,7 +417,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,36 +445,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,8 +467,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,10 +499,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -527,7 +533,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +605,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,25 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,25 +665,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,91 +695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,30 +755,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -795,9 +777,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,11 +803,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,142 +838,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1338,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -1926,7 +1932,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="8" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>48</v>
@@ -1975,7 +1981,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>18</v>
@@ -1994,7 +2000,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
@@ -2024,16 +2030,16 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2075,7 +2081,7 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>34</v>
@@ -2094,7 +2100,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
@@ -2114,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2127,7 +2133,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>27</v>
@@ -2176,7 +2182,7 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>38</v>
@@ -2224,7 +2230,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>36</v>
@@ -2250,7 +2256,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -2466,7 +2472,7 @@
         <v>45733</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>48</v>
@@ -2484,7 +2490,7 @@
         <v>45735</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
@@ -2502,16 +2508,16 @@
         <v>45737</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2522,7 +2528,7 @@
         <v>45739</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>34</v>
@@ -2540,13 +2546,13 @@
         <v>45741</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -2558,7 +2564,7 @@
         <v>45743</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>38</v>
@@ -2613,22 +2619,22 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>18</v>
@@ -2645,10 +2651,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -2678,10 +2684,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3" s="5">
         <v>2</v>
@@ -2711,10 +2717,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -2744,10 +2750,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
@@ -2777,10 +2783,10 @@
         <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" s="5">
         <v>6</v>
@@ -2813,7 +2819,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" s="3">
         <v>11</v>
@@ -2843,10 +2849,10 @@
         <v>36</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" s="5">
         <v>8</v>
@@ -2879,7 +2885,7 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9" s="3">
         <v>9</v>
@@ -2909,10 +2915,10 @@
         <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10" s="5">
         <v>10</v>
@@ -2942,10 +2948,10 @@
         <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11" s="3">
         <v>7</v>
@@ -2975,10 +2981,10 @@
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G12" s="5">
         <v>12</v>
@@ -3007,7 +3013,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G13" s="3">
         <v>13</v>
@@ -3033,10 +3039,10 @@
         <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G14" s="5">
         <v>26</v>
@@ -3062,10 +3068,10 @@
         <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="5">
         <v>16</v>
@@ -3091,10 +3097,10 @@
         <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G16" s="5">
         <v>17</v>
@@ -3123,7 +3129,7 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="5">
         <v>18</v>
@@ -3369,12 +3375,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -82,19 +82,19 @@
     <t>Ananda Daffa</t>
   </si>
   <si>
+    <t>Ustadz Miftahul Hadi</t>
+  </si>
+  <si>
+    <t>Andi Iskandar</t>
+  </si>
+  <si>
+    <t>Kholis</t>
+  </si>
+  <si>
+    <t>Ananda Kholis</t>
+  </si>
+  <si>
     <t>Ustadz Yasser Hamzah</t>
-  </si>
-  <si>
-    <t>Andi Iskandar</t>
-  </si>
-  <si>
-    <t>Kholis</t>
-  </si>
-  <si>
-    <t>Ananda Kholis</t>
-  </si>
-  <si>
-    <t>Ustadz Miftahul Hadi</t>
   </si>
   <si>
     <t>Aswan</t>
@@ -340,9 +340,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -370,28 +370,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -407,9 +385,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,29 +439,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,9 +455,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,33 +486,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -527,55 +527,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,25 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,31 +581,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +635,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,25 +683,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,26 +736,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,17 +760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -801,20 +775,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,147 +804,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1344,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -1482,7 +1482,6 @@
       <c r="B6" s="6">
         <v>45717</v>
       </c>
-      <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1516,12 +1515,12 @@
       <c r="B7" s="4">
         <v>45718</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>C7</f>
-        <v>Ustadz Miftahul Hadi</v>
+        <v>Ustadz Yasser Hamzah</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1897,7 +1896,7 @@
         <v>45732</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="12" t="str">
         <f>C21</f>
@@ -2152,7 +2151,7 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D31" s="3" t="str">
         <f>C31</f>

--- a/file.xlsx
+++ b/file.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DT dan Pak Gatot" sheetId="1" r:id="rId1"/>
-    <sheet name="Santri" sheetId="4" r:id="rId2"/>
-    <sheet name="Olah Pak Gatot (bukan fix)" sheetId="3" r:id="rId3"/>
-    <sheet name="Pak Gatot" sheetId="2" r:id="rId4"/>
+    <sheet name="Olah - Santri" sheetId="4" r:id="rId2"/>
+    <sheet name="Olah - Pak Gatot" sheetId="3" r:id="rId3"/>
+    <sheet name="Olah - Pak Gatot 2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1344,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -3355,7 +3355,7 @@
   <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/file.xlsx
+++ b/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="DT dan Pak Gatot" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="105">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -82,124 +82,124 @@
     <t>Ananda Daffa</t>
   </si>
   <si>
+    <t>Ustadz Zaky</t>
+  </si>
+  <si>
+    <t>Andi Iskandar</t>
+  </si>
+  <si>
+    <t>Kholis</t>
+  </si>
+  <si>
+    <t>Ananda Kholis</t>
+  </si>
+  <si>
+    <t>Ustadz Yasser Hamzah</t>
+  </si>
+  <si>
+    <t>Aswan</t>
+  </si>
+  <si>
+    <t>Hanif</t>
+  </si>
+  <si>
+    <t>Ananda Hanif</t>
+  </si>
+  <si>
+    <t>Abdul Rifai</t>
+  </si>
+  <si>
+    <t>Budi Prabowo</t>
+  </si>
+  <si>
+    <t>Ustadz Wahidi Rahman</t>
+  </si>
+  <si>
+    <t>sudah dikabarkan</t>
+  </si>
+  <si>
+    <t>Chairid Daha</t>
+  </si>
+  <si>
+    <t>Ustadz Aslam Abu Hanifah</t>
+  </si>
+  <si>
+    <t>Lukman</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Imanuddin</t>
+  </si>
+  <si>
+    <t>Ustadz Chairid Daha</t>
+  </si>
+  <si>
+    <t>Komatsu Kumala Hastin</t>
+  </si>
+  <si>
+    <t>Ustadz Rezky</t>
+  </si>
+  <si>
+    <t>Miftahul Hadi</t>
+  </si>
+  <si>
+    <t>Rezky Adistya</t>
+  </si>
+  <si>
+    <t>Ustadz Muhammad Asmuni</t>
+  </si>
+  <si>
+    <t>Wachyu</t>
+  </si>
+  <si>
+    <t>Wahidi Rahman</t>
+  </si>
+  <si>
+    <t>Yuda</t>
+  </si>
+  <si>
+    <t>Zakky</t>
+  </si>
+  <si>
+    <t>Zen</t>
+  </si>
+  <si>
+    <t>Ustadz Iman</t>
+  </si>
+  <si>
+    <t>Ananda Hazwan</t>
+  </si>
+  <si>
+    <t>Ananda Habib</t>
+  </si>
+  <si>
+    <t>Ustadz Ngalal</t>
+  </si>
+  <si>
+    <t>Ananda Royyan</t>
+  </si>
+  <si>
+    <t>insya Allah</t>
+  </si>
+  <si>
+    <t>Alumni sepuluh malam terakhir</t>
+  </si>
+  <si>
+    <t>Ananda Zuhdi</t>
+  </si>
+  <si>
+    <t>Ustadz Imanuddin</t>
+  </si>
+  <si>
+    <t>(baru sekali)</t>
+  </si>
+  <si>
+    <t>Ananda Firman</t>
+  </si>
+  <si>
     <t>Ustadz Miftahul Hadi</t>
-  </si>
-  <si>
-    <t>Andi Iskandar</t>
-  </si>
-  <si>
-    <t>Kholis</t>
-  </si>
-  <si>
-    <t>Ananda Kholis</t>
-  </si>
-  <si>
-    <t>Ustadz Yasser Hamzah</t>
-  </si>
-  <si>
-    <t>Aswan</t>
-  </si>
-  <si>
-    <t>Hanif</t>
-  </si>
-  <si>
-    <t>Ananda Hanif</t>
-  </si>
-  <si>
-    <t>Ustadz Zaky</t>
-  </si>
-  <si>
-    <t>Abdul Rifai</t>
-  </si>
-  <si>
-    <t>Budi Prabowo</t>
-  </si>
-  <si>
-    <t>Ustadz Wahidi Rahman</t>
-  </si>
-  <si>
-    <t>sudah dikabarkan</t>
-  </si>
-  <si>
-    <t>Chairid Daha</t>
-  </si>
-  <si>
-    <t>Ustadz Aslam Abu Hanifah</t>
-  </si>
-  <si>
-    <t>Lukman</t>
-  </si>
-  <si>
-    <t>Ibrahim</t>
-  </si>
-  <si>
-    <t>Imanuddin</t>
-  </si>
-  <si>
-    <t>Ustadz Chairid Daha</t>
-  </si>
-  <si>
-    <t>Komatsu Kumala Hastin</t>
-  </si>
-  <si>
-    <t>Ustadz Rezky</t>
-  </si>
-  <si>
-    <t>Miftahul Hadi</t>
-  </si>
-  <si>
-    <t>Rezky Adistya</t>
-  </si>
-  <si>
-    <t>Ustadz Muhammad Asmuni</t>
-  </si>
-  <si>
-    <t>Wachyu</t>
-  </si>
-  <si>
-    <t>Wahidi Rahman</t>
-  </si>
-  <si>
-    <t>Yuda</t>
-  </si>
-  <si>
-    <t>Zakky</t>
-  </si>
-  <si>
-    <t>Zen</t>
-  </si>
-  <si>
-    <t>Ustadz Iman</t>
-  </si>
-  <si>
-    <t>Ananda Hazwan</t>
-  </si>
-  <si>
-    <t>Ananda Habib</t>
-  </si>
-  <si>
-    <t>Ustadz Ngalal</t>
-  </si>
-  <si>
-    <t>Ananda Royyan</t>
-  </si>
-  <si>
-    <t>insya Allah</t>
-  </si>
-  <si>
-    <t>Alumni sepuluh malam terakhir</t>
-  </si>
-  <si>
-    <t>Ananda Zuhdi</t>
-  </si>
-  <si>
-    <t>Ustadz Imanuddin</t>
-  </si>
-  <si>
-    <t>(baru sekali)</t>
-  </si>
-  <si>
-    <t>Ananda Firman</t>
   </si>
   <si>
     <t>Ananda Hasyim</t>
@@ -340,9 +340,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -370,18 +370,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,14 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -416,8 +416,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,34 +440,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,15 +469,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,8 +489,24 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,7 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,43 +545,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,19 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +605,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,31 +647,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,25 +677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,6 +766,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -771,21 +801,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,17 +822,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -827,9 +831,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,142 +844,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,7 +989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,6 +1027,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1344,8 +1356,8 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -1482,7 +1494,7 @@
       <c r="B6" s="6">
         <v>45717</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
@@ -1554,16 +1566,16 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1575,7 +1587,7 @@
         <v>45720</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>C9</f>
@@ -1585,13 +1597,13 @@
         <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1610,7 +1622,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>17</v>
@@ -1628,7 +1640,7 @@
         <v>45722</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>C11</f>
@@ -1638,13 +1650,13 @@
         <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -1663,13 +1675,13 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1681,26 +1693,26 @@
         <v>45724</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="str">
         <f>C13</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1716,13 +1728,13 @@
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1733,10 +1745,10 @@
       <c r="B15" s="4">
         <v>45726</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="12" t="str">
+      <c r="C15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="13" t="str">
         <f>C15</f>
         <v>Ustadz Rezky</v>
       </c>
@@ -1750,13 +1762,13 @@
         <v>17</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>41</v>
+      <c r="J15" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1771,14 +1783,12 @@
       <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1790,7 +1800,7 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
@@ -1800,13 +1810,13 @@
         <v>17</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -1825,13 +1835,13 @@
         <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1842,10 +1852,10 @@
       <c r="B19" s="4">
         <v>45730</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="12" t="str">
+      <c r="C19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="13" t="str">
         <f>C19</f>
         <v>Ustadz Rezky</v>
       </c>
@@ -1859,7 +1869,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -1878,13 +1888,13 @@
         <v>24</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1900,25 +1910,25 @@
       </c>
       <c r="D21" s="12" t="str">
         <f>C21</f>
-        <v>Ustadz Miftahul Hadi</v>
+        <v>Ustadz Zaky</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
         <v>49</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1931,10 +1941,10 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>17</v>
@@ -1950,24 +1960,24 @@
         <v>45734</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>C23</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1980,7 +1990,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>18</v>
@@ -1999,7 +2009,7 @@
         <v>45736</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>C25</f>
@@ -2029,16 +2039,16 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2050,7 +2060,7 @@
         <v>45738</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>C27</f>
@@ -2060,10 +2070,10 @@
         <v>17</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" t="s">
@@ -2080,10 +2090,10 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>17</v>
@@ -2099,7 +2109,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>C29</f>
@@ -2109,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>17</v>
@@ -2119,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2132,7 +2142,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>27</v>
@@ -2151,7 +2161,7 @@
         <v>45742</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3" t="str">
         <f>C31</f>
@@ -2161,7 +2171,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>17</v>
@@ -2184,7 +2194,7 @@
         <v>61</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>17</v>
@@ -2210,7 +2220,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>17</v>
@@ -2232,10 +2242,10 @@
         <v>62</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="9"/>
     </row>
@@ -2255,7 +2265,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -2354,7 +2364,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>17</v>
@@ -2374,13 +2384,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2394,13 +2404,13 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2414,13 +2424,13 @@
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2434,13 +2444,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2454,13 +2464,13 @@
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2474,7 +2484,7 @@
         <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>17</v>
@@ -2513,10 +2523,10 @@
         <v>26</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2530,7 +2540,7 @@
         <v>66</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>17</v>
@@ -2548,7 +2558,7 @@
         <v>67</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>68</v>
@@ -2566,7 +2576,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>17</v>
@@ -2589,7 +2599,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -2746,7 +2756,7 @@
         <v>45719</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>81</v>
@@ -2779,7 +2789,7 @@
         <v>45720</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>83</v>
@@ -2812,7 +2822,7 @@
         <v>45721</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
@@ -2833,7 +2843,7 @@
         <v>45730</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2845,7 +2855,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>86</v>
@@ -2866,7 +2876,7 @@
         <v>45742</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2878,10 +2888,10 @@
         <v>45723</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>88</v>
@@ -2899,7 +2909,7 @@
         <v>45743</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2911,7 +2921,7 @@
         <v>45724</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>89</v>
@@ -2932,7 +2942,7 @@
         <v>45744</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2944,7 +2954,7 @@
         <v>45725</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>91</v>
@@ -3006,10 +3016,10 @@
         <v>45727</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
         <v>95</v>
@@ -3023,7 +3033,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
       <c r="L13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3035,7 +3045,7 @@
         <v>45728</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>96</v>
@@ -3052,7 +3062,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
       <c r="L14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3064,7 +3074,7 @@
         <v>45729</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>98</v>
@@ -3081,7 +3091,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
       <c r="L15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3110,7 +3120,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="4"/>
       <c r="L16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3122,10 +3132,10 @@
         <v>45731</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
         <v>102</v>
@@ -3139,7 +3149,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
       <c r="L17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3151,11 +3161,11 @@
         <v>45732</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3167,10 +3177,10 @@
         <v>45733</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3182,10 +3192,10 @@
         <v>45734</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3200,7 +3210,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3215,7 +3225,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3230,7 +3240,7 @@
         <v>26</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3242,10 +3252,10 @@
         <v>45738</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3257,10 +3267,10 @@
         <v>45739</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3272,10 +3282,10 @@
         <v>45740</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3287,7 +3297,7 @@
         <v>45741</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7"/>
     </row>
@@ -3300,7 +3310,7 @@
         <v>45742</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -3313,7 +3323,7 @@
         <v>45743</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L29" s="3"/>
     </row>
@@ -3326,7 +3336,7 @@
         <v>45744</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -3338,7 +3348,7 @@
         <v>45745</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3355,8 +3365,8 @@
   <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3442,10 +3452,10 @@
         <v>45719</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3458,7 +3468,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3484,7 +3494,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3497,7 +3507,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3510,7 +3520,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3523,7 +3533,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3536,7 +3546,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3549,7 +3559,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3562,7 +3572,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3574,10 +3584,10 @@
         <v>45729</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3590,7 +3600,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3603,7 +3613,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3616,7 +3626,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3705,7 +3715,7 @@
         <v>45740</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="3"/>
     </row>

--- a/file.xlsx
+++ b/file.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="105">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -145,6 +145,9 @@
     <t>Miftahul Hadi</t>
   </si>
   <si>
+    <t>Zakky</t>
+  </si>
+  <si>
     <t>Rezky Adistya</t>
   </si>
   <si>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t>Yuda</t>
-  </si>
-  <si>
-    <t>Zakky</t>
   </si>
   <si>
     <t>Zen</t>
@@ -506,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,12 +522,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,120 +838,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,10 +970,10 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,7 +983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,9 +1024,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,8 +1347,8 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C$1:E$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -1783,12 +1774,14 @@
       <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1800,7 +1793,7 @@
         <v>45728</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>C17</f>
@@ -1810,13 +1803,13 @@
         <v>17</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -1841,7 +1834,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1869,7 +1862,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -1888,13 +1881,13 @@
         <v>24</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1916,7 +1909,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>17</v>
@@ -1944,7 +1937,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>17</v>
@@ -2430,7 +2423,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2450,7 +2443,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2464,13 +2457,13 @@
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2484,7 +2477,7 @@
         <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>17</v>
@@ -2558,7 +2551,7 @@
         <v>67</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>68</v>
@@ -3045,7 +3038,7 @@
         <v>45728</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>96</v>
@@ -3132,10 +3125,10 @@
         <v>45731</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
         <v>102</v>
@@ -3161,7 +3154,7 @@
         <v>45732</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3"/>
       <c r="L18" s="3" t="s">
@@ -3177,7 +3170,7 @@
         <v>45733</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>35</v>
@@ -3225,7 +3218,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3240,7 +3233,7 @@
         <v>26</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3255,7 +3248,7 @@
         <v>30</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3270,7 +3263,7 @@
         <v>33</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3285,7 +3278,7 @@
         <v>29</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3297,7 +3290,7 @@
         <v>45741</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7"/>
     </row>
@@ -3559,7 +3552,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3572,7 +3565,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3587,7 +3580,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3600,7 +3593,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3613,7 +3606,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/file.xlsx
+++ b/file.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DT dan Pak Gatot" sheetId="1" r:id="rId1"/>
-    <sheet name="Olah - Santri" sheetId="4" r:id="rId2"/>
-    <sheet name="Olah - Pak Gatot" sheetId="3" r:id="rId3"/>
-    <sheet name="Olah - Pak Gatot 2" sheetId="2" r:id="rId4"/>
+    <sheet name="Olah - Pak Gatot 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Olah - Santri" sheetId="4" r:id="rId3"/>
+    <sheet name="Olah - Pak Gatot" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="105">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -208,6 +208,12 @@
     <t>Ustadz Latip</t>
   </si>
   <si>
+    <t>Abdul Rifai 3x harinya Senin atau kamis</t>
+  </si>
+  <si>
+    <t>Musholla Baitul Hilmi, Jalan Monas</t>
+  </si>
+  <si>
     <t>Ananda Hazwan (Alumni)</t>
   </si>
   <si>
@@ -326,12 +332,6 @@
   </si>
   <si>
     <t>+62 813-2469-8218</t>
-  </si>
-  <si>
-    <t>Abdul Rifai 3x harinya Senin atau kamis</t>
-  </si>
-  <si>
-    <t>Musholla Baitul Hilmi, Jalan Monas</t>
   </si>
 </sst>
 </file>
@@ -987,9 +987,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,6 +1003,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1347,8 +1347,8 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -1367,32 +1367,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="K1" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="K2" t="s">
         <v>3</v>
       </c>
@@ -1409,29 +1409,29 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
@@ -1442,29 +1442,29 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>45716</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="2" t="str">
         <f>C5</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
@@ -1478,11 +1478,11 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45717</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1491,13 +1491,13 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
@@ -1511,30 +1511,30 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>45718</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="2" t="str">
         <f>C7</f>
         <v>Ustadz Yasser Hamzah</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I7" t="s">
@@ -1548,52 +1548,52 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45719</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>45720</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="2" t="str">
         <f>C9</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I9" t="s">
@@ -1601,52 +1601,52 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45721</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>45722</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="2" t="str">
         <f>C11</f>
         <v>Ustadz Aslam Abu Hanifah</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I11" t="s">
@@ -1654,52 +1654,52 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45723</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>45724</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="2" t="str">
         <f>C13</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I13" t="s">
@@ -1707,33 +1707,33 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45725</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>45726</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1746,13 +1746,13 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I15" t="s">
@@ -1763,14 +1763,14 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45727</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
@@ -1780,35 +1780,35 @@
       <c r="G16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>45728</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="D17" s="2" t="str">
         <f>C17</f>
         <v>Ustadz Muhammad Asmuni</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I17" t="s">
@@ -1816,33 +1816,33 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45729</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>45730</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1855,13 +1855,13 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I19" t="s">
@@ -1869,33 +1869,33 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45731</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
         <v>45732</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -1908,13 +1908,13 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I21" t="s">
@@ -1925,18 +1925,18 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>45733</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -1945,24 +1945,24 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>45734</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="3" t="str">
+      <c r="D23" s="2" t="str">
         <f>C23</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -1974,18 +1974,18 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>45735</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="9" t="s">
@@ -1994,24 +1994,24 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>45736</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D25" s="2" t="str">
         <f>C25</f>
         <v>Ustadz Ngalal</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="10" t="s">
@@ -2023,18 +2023,18 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>45737</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="10" t="s">
@@ -2045,24 +2045,24 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>45738</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="D27" s="2" t="str">
         <f>C27</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="10" t="s">
@@ -2074,18 +2074,18 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>45739</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="9" t="s">
@@ -2094,24 +2094,24 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>45740</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="D29" s="2" t="str">
         <f>C29</f>
         <v>Ustadz Imanuddin</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="10" t="s">
@@ -2126,18 +2126,18 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>45741</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -2146,24 +2146,24 @@
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>45742</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="3" t="str">
+      <c r="D31" s="2" t="str">
         <f>C31</f>
         <v>Ustadz Miftahul Hadi</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -2175,18 +2175,18 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>45743</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G32" s="9" t="s">
@@ -2195,24 +2195,24 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>45744</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f>C33</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="10" t="s">
@@ -2224,17 +2224,17 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>45745</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="9" t="s">
@@ -2253,6 +2253,486 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="26.4296296296296" customWidth="1"/>
+    <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45716</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <f t="shared" ref="A6:A33" si="0">A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45717</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45718</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45719</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45720</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45721</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45722</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45723</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45724</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45725</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45726</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45727</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45728</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45729</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45730</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45731</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45732</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45733</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45734</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45735</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45736</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45737</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45738</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45739</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45740</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45741</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45742</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45744</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5">
+        <v>45745</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+  </sheetData>
+  <sortState ref="E5:E33">
+    <sortCondition ref="E5"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K16"/>
@@ -2277,30 +2757,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="J2" t="s">
         <v>3</v>
       </c>
@@ -2317,26 +2797,26 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
@@ -2347,136 +2827,136 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45721</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45723</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45725</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45727</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>14</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45729</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>16</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45731</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>18</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45733</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -2485,16 +2965,16 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>20</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45735</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -2503,16 +2983,16 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>22</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45737</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -2523,16 +3003,16 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>24</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45739</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -2541,34 +3021,34 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>26</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45741</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>28</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45743</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -2586,7 +3066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L31"/>
@@ -2611,736 +3091,736 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>45716</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="3">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>45716</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>20</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>45735</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <f t="shared" ref="A3:A30" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45717</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>77</v>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="5">
+        <v>80</v>
+      </c>
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>45717</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>21</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>45736</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>45718</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>79</v>
+      <c r="E4" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="3">
+        <v>82</v>
+      </c>
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>45718</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>22</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>45737</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45719</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>81</v>
+      <c r="E5" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="3">
+        <v>84</v>
+      </c>
+      <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>45720</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>23</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>45738</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>45720</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>83</v>
+      <c r="E6" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="5">
+        <v>86</v>
+      </c>
+      <c r="G6" s="4">
         <v>6</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>45721</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>24</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>45739</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45721</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="3">
+        <v>87</v>
+      </c>
+      <c r="G7" s="2">
         <v>11</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>45726</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>15</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>45730</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>45722</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>86</v>
+      <c r="E8" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="5">
+        <v>89</v>
+      </c>
+      <c r="G8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>45723</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>27</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>45742</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45723</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="3">
+        <v>90</v>
+      </c>
+      <c r="G9" s="2">
         <v>9</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>45724</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>28</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>45743</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>45724</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>89</v>
+      <c r="E10" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="5">
+        <v>92</v>
+      </c>
+      <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>45725</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>29</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>45744</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45725</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>91</v>
+      <c r="E11" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="3">
+        <v>94</v>
+      </c>
+      <c r="G11" s="2">
         <v>7</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>45722</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>30</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>45745</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>45726</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>93</v>
+      <c r="E12" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="5">
+        <v>96</v>
+      </c>
+      <c r="G12" s="4">
         <v>12</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>45727</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="L12" s="5" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45727</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="3">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2">
         <v>13</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>45728</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="L13" s="5" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>45728</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>96</v>
+      <c r="E14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="5">
+        <v>99</v>
+      </c>
+      <c r="G14" s="4">
         <v>26</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>45741</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="L14" s="5" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45729</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>98</v>
+      <c r="E15" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="5">
+        <v>101</v>
+      </c>
+      <c r="G15" s="4">
         <v>16</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>45731</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-      <c r="L15" s="5" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>45730</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>100</v>
+      <c r="E16" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="5">
-        <v>17</v>
-      </c>
-      <c r="H16" s="6">
+        <v>103</v>
+      </c>
+      <c r="G16" s="4">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5">
         <v>45732</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="L16" s="5" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45731</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="5">
+        <v>104</v>
+      </c>
+      <c r="G17" s="4">
         <v>18</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>45733</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="3" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
         <v>45732</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="E18" s="2"/>
+      <c r="L18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45733</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>45734</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>45735</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>45736</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>45737</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>45738</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>45739</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>45740</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>45741</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>45742</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>45743</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>45744</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>45745</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3351,430 +3831,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="26.4296296296296" customWidth="1"/>
-    <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>45716</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5">
-        <f t="shared" ref="A6:A33" si="0">A5+1</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="6">
-        <v>45717</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45718</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>45719</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45720</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45721</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>45722</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="E11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="6">
-        <v>45723</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="4">
-        <v>45724</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="6">
-        <v>45725</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="4">
-        <v>45726</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="6">
-        <v>45727</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="E16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="4">
-        <v>45728</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="6">
-        <v>45729</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="4">
-        <v>45730</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="6">
-        <v>45731</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="4">
-        <v>45732</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="6">
-        <v>45733</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="4">
-        <v>45734</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="6">
-        <v>45735</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="4">
-        <v>45736</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="6">
-        <v>45737</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="4">
-        <v>45738</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="6">
-        <v>45739</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="4">
-        <v>45740</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="6">
-        <v>45741</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="4">
-        <v>45742</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="6">
-        <v>45743</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="4">
-        <v>45744</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="5">
-        <v>30</v>
-      </c>
-      <c r="B34" s="6">
-        <v>45745</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-  </sheetData>
-  <sortState ref="E5:E33">
-    <sortCondition ref="E5"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/file.xlsx
+++ b/file.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="DT dan Pak Gatot" sheetId="1" r:id="rId1"/>
-    <sheet name="Olah - Pak Gatot 2" sheetId="2" r:id="rId2"/>
+    <sheet name="DT" sheetId="1" r:id="rId1"/>
+    <sheet name="Pak Gatot" sheetId="2" r:id="rId2"/>
     <sheet name="Olah - Santri" sheetId="4" r:id="rId3"/>
     <sheet name="Olah - Pak Gatot" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="109">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -217,13 +217,25 @@
     <t>Ananda Hazwan (Alumni)</t>
   </si>
   <si>
+    <t>+62 822-5346-8121</t>
+  </si>
+  <si>
     <t>Ananda Habib (Alumni)</t>
   </si>
   <si>
+    <t>+62 852-1006-7327</t>
+  </si>
+  <si>
     <t>Ananda Royyan (Alumni)</t>
   </si>
   <si>
+    <t>+62 813-4641-7124</t>
+  </si>
+  <si>
     <t>Ananda Zuhdi (Alumni)</t>
+  </si>
+  <si>
+    <t>+62 852-4967-2832</t>
   </si>
   <si>
     <t>Ananda Firman (Alumni)</t>
@@ -1347,8 +1359,8 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -2257,8 +2269,8 @@
   <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2650,7 +2662,7 @@
       <c r="B29" s="3">
         <v>45740</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="2"/>
@@ -2737,8 +2749,8 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -2746,7 +2758,7 @@
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="15.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="17.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="20.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="26.6666666666667" customWidth="1"/>
@@ -2956,6 +2968,9 @@
       <c r="C11" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
@@ -2972,7 +2987,10 @@
         <v>45735</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -2990,7 +3008,10 @@
         <v>45737</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
@@ -3010,7 +3031,10 @@
         <v>45739</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>33</v>
@@ -3028,13 +3052,13 @@
         <v>45741</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -3072,7 +3096,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3101,22 +3125,22 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>18</v>
@@ -3133,10 +3157,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -3166,10 +3190,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
@@ -3199,10 +3223,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -3232,10 +3256,10 @@
         <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
@@ -3265,10 +3289,10 @@
         <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G6" s="4">
         <v>6</v>
@@ -3301,7 +3325,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2">
         <v>11</v>
@@ -3331,10 +3355,10 @@
         <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G8" s="4">
         <v>8</v>
@@ -3367,7 +3391,7 @@
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G9" s="2">
         <v>9</v>
@@ -3397,10 +3421,10 @@
         <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G10" s="4">
         <v>10</v>
@@ -3430,10 +3454,10 @@
         <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G11" s="2">
         <v>7</v>
@@ -3463,10 +3487,10 @@
         <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G12" s="4">
         <v>12</v>
@@ -3495,7 +3519,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2">
         <v>13</v>
@@ -3521,10 +3545,10 @@
         <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G14" s="4">
         <v>26</v>
@@ -3550,10 +3574,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G15" s="4">
         <v>16</v>
@@ -3579,10 +3603,10 @@
         <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G16" s="4">
         <v>17</v>
@@ -3611,7 +3635,7 @@
         <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G17" s="4">
         <v>18</v>

--- a/file.xlsx
+++ b/file.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="1" r:id="rId1"/>
     <sheet name="Pak Gatot" sheetId="2" r:id="rId2"/>
     <sheet name="Olah - Santri" sheetId="4" r:id="rId3"/>
     <sheet name="Olah - Pak Gatot" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DT!$A$1:$D$36</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="115">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -199,13 +203,36 @@
     <t>Ananda Firman</t>
   </si>
   <si>
-    <t>Ustadz Miftahul Hadi</t>
+    <t>Ustadz Latip</t>
   </si>
   <si>
     <t>Ananda Hasyim</t>
   </si>
   <si>
-    <t>Ustadz Latip</t>
+    <r>
+      <t xml:space="preserve">Bagi yang ingin mendapatkan salinan jadwal imam, silahkan ketik </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tarawih </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ke WA 0851-8327-9550</t>
+    </r>
   </si>
   <si>
     <t>Abdul Rifai 3x harinya Senin atau kamis</t>
@@ -344,6 +371,24 @@
   </si>
   <si>
     <t>+62 813-2469-8218</t>
+  </si>
+  <si>
+    <t>+62 822-4124-5719</t>
+  </si>
+  <si>
+    <t>+62 812-5384-450</t>
+  </si>
+  <si>
+    <t>+62 852-4877-0627</t>
+  </si>
+  <si>
+    <t>+62 812-5034-0349</t>
+  </si>
+  <si>
+    <t>+62 853-8933-3869</t>
+  </si>
+  <si>
+    <t>+62 857-1920-7265</t>
   </si>
 </sst>
 </file>
@@ -351,11 +396,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -374,19 +419,124 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,111 +552,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,7 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,13 +614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +644,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +674,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,115 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,6 +802,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -768,6 +822,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,58 +885,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,168 +895,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,9 +1068,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,6 +1082,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1357,10 +1405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -1379,32 +1427,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="K1" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="K2" t="s">
         <v>3</v>
       </c>
@@ -1421,29 +1469,29 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
@@ -1454,29 +1502,29 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>45716</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="3" t="str">
         <f>C5</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
@@ -1490,11 +1538,11 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>45717</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1503,13 +1551,13 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
@@ -1523,30 +1571,30 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>45718</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="3" t="str">
         <f>C7</f>
         <v>Ustadz Yasser Hamzah</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I7" t="s">
@@ -1560,52 +1608,52 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>45719</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>45720</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="3" t="str">
         <f>C9</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I9" t="s">
@@ -1613,52 +1661,52 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>45721</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>45722</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="3" t="str">
         <f>C11</f>
         <v>Ustadz Aslam Abu Hanifah</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I11" t="s">
@@ -1666,52 +1714,52 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>45723</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>45724</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="3" t="str">
         <f>C13</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I13" t="s">
@@ -1719,71 +1767,71 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>45725</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>45726</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="13" t="str">
+      <c r="D15" s="12" t="str">
         <f>C15</f>
         <v>Ustadz Rezky</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>45727</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -1792,35 +1840,35 @@
       <c r="G16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>45728</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="3" t="str">
         <f>C17</f>
         <v>Ustadz Muhammad Asmuni</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I17" t="s">
@@ -1828,52 +1876,52 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>45729</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>45730</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="13" t="str">
+      <c r="D19" s="12" t="str">
         <f>C19</f>
         <v>Ustadz Rezky</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I19" t="s">
@@ -1881,33 +1929,33 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>45731</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
         <v>45732</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -1920,13 +1968,13 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I21" t="s">
@@ -1937,18 +1985,18 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>45733</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -1957,24 +2005,24 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>45734</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="D23" s="3" t="str">
         <f>C23</f>
         <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -1986,18 +2034,18 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>45735</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="9" t="s">
@@ -2006,24 +2054,24 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>45736</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="D25" s="3" t="str">
         <f>C25</f>
         <v>Ustadz Ngalal</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="10" t="s">
@@ -2035,18 +2083,18 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>45737</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="10" t="s">
@@ -2057,24 +2105,24 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
         <v>45738</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D27" s="3" t="str">
         <f>C27</f>
         <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="10" t="s">
@@ -2086,18 +2134,18 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>45739</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="9" t="s">
@@ -2106,24 +2154,24 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>45740</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D29" s="3" t="str">
         <f>C29</f>
         <v>Ustadz Imanuddin</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="10" t="s">
@@ -2138,18 +2186,18 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>45741</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -2158,24 +2206,24 @@
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>45742</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="D31" s="13" t="str">
         <f>C31</f>
-        <v>Ustadz Miftahul Hadi</v>
+        <v>Ustadz Latip</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -2187,18 +2235,18 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>45743</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G32" s="9" t="s">
@@ -2207,24 +2255,24 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>45744</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="D33" s="3" t="str">
         <f>C33</f>
         <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="10" t="s">
@@ -2236,23 +2284,28 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>45745</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H34" s="9"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="14" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2260,6 +2313,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2282,454 +2336,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="E1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>45716</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>45717</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>45718</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>45719</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>45720</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>45721</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>45722</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>45723</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>45724</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>45725</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>45726</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>45727</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>45728</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>45729</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>45730</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>45731</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
         <v>45732</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>45733</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>45734</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>45735</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>45736</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>45737</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
         <v>45738</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>45739</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>45740</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>45741</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>45742</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>45743</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>45744</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>45745</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="2"/>
     </row>
   </sheetData>
   <sortState ref="E5:E33">
@@ -2749,8 +2803,8 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -2769,30 +2823,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="J2" t="s">
         <v>3</v>
       </c>
@@ -2809,26 +2863,26 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
@@ -2839,139 +2893,139 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>45721</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>45723</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>45725</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>45727</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>14</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>45729</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>45731</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>18</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>45733</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -2980,19 +3034,19 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>45735</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -3001,19 +3055,19 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>45737</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -3024,19 +3078,19 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>24</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>45739</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -3045,16 +3099,16 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>26</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>45741</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -3063,16 +3117,16 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>28</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>45743</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -3096,7 +3150,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3115,13 +3169,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
@@ -3142,709 +3196,709 @@
       <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>45716</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>45716</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>20</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="5">
         <v>45735</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <f t="shared" ref="A3:A30" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>45717</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>45717</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>21</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <v>45736</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>45718</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F4" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>45718</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>22</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>45737</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>45719</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F5" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>45720</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>23</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="5">
         <v>45738</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>45720</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>45721</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>24</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <v>45739</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>45721</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>11</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>45726</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>15</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="5">
         <v>45730</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>45722</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>8</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>45723</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>27</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="5">
         <v>45742</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>45723</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>9</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>45724</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>28</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="5">
         <v>45743</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>45724</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>95</v>
       </c>
       <c r="F10" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>10</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>45725</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>29</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="5">
         <v>45744</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>45725</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>7</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
         <v>45722</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>30</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="5">
         <v>45745</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>45726</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F12" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>12</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>45727</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="4" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="5"/>
+      <c r="L12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>45727</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>13</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <v>45728</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="4" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="5"/>
+      <c r="L13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>45728</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>26</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>45741</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="4" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="5"/>
+      <c r="L14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>45729</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F15" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>16</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>45731</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="L15" s="4" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="5"/>
+      <c r="L15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>45730</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="4">
-        <v>17</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="2">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6">
         <v>45732</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="4" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="5"/>
+      <c r="L16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>45731</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>18</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>45733</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="2" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="5"/>
+      <c r="L17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
         <v>45732</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="L18" s="2" t="s">
+      <c r="E18" s="3"/>
+      <c r="L18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>45733</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>45734</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>45735</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>45736</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>45737</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>45738</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>45739</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="5">
         <v>45740</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>45741</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>45742</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>45743</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>45744</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>45745</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3855,4 +3909,280 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="23.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="17.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="21.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A28">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/file.xlsx
+++ b/file.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="121">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -164,6 +164,9 @@
     <t>Komatsu Kumala Hastin</t>
   </si>
   <si>
+    <t>Ananda Pahrezy</t>
+  </si>
+  <si>
     <t>Ustadz Rezky</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
     <t>Miftahul Hadi</t>
   </si>
   <si>
+    <t>Ananda Afkar</t>
+  </si>
+  <si>
     <t>Zakky</t>
   </si>
   <si>
@@ -261,6 +267,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Bagi yang ingin mendapatkan salinan jadwal imam, silahkan ketik </t>
     </r>
     <r>
@@ -304,19 +317,38 @@
     <t>+62 857-5422-7966</t>
   </si>
   <si>
+    <t xml:space="preserve"> +62 815-4514-3654</t>
+  </si>
+  <si>
     <t>+62 853-8889-8918</t>
   </si>
   <si>
+    <t>+62 851-5695-2623</t>
+  </si>
+  <si>
+    <t>+62 898-5520-616</t>
+  </si>
+  <si>
     <t>+62 822-5282-6688</t>
   </si>
   <si>
-    <t>+62 851-5695-2623</t>
-  </si>
-  <si>
-    <t>+62 898-5520-616</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +62 815-4514-3654</t>
+    <r>
+      <t xml:space="preserve">Bagi yang ingin mendapatkan salinan jadwal imam, silahkan ketik </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tarawih </t>
+    </r>
+  </si>
+  <si>
+    <t>ke WA 0851-8327-9550</t>
   </si>
   <si>
     <t>namaPanggilan</t>
@@ -402,11 +434,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -425,37 +457,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -464,45 +465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,32 +480,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,9 +502,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,7 +622,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,7 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +754,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,43 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,91 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,6 +831,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -818,6 +865,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -832,21 +894,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -854,6 +901,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,111 +928,117 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,68 +1047,38 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,7 +1091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1080,16 +1112,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1416,8 +1445,8 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -1815,7 +1844,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -1839,14 +1868,14 @@
         <v>45726</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="12" t="str">
         <f>C15</f>
         <v>Ustadz Rezky</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1858,13 +1887,13 @@
         <v>18</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1877,19 +1906,19 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1901,26 +1930,26 @@
         <v>45728</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>C17</f>
         <v>Ustadz Muhammad Asmuni</v>
       </c>
       <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="H17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
@@ -1948,7 +1977,7 @@
         <v>18</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1960,14 +1989,14 @@
         <v>45730</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="12" t="str">
         <f>C19</f>
         <v>Ustadz Rezky</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -1979,7 +2008,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
@@ -2001,13 +2030,13 @@
         <v>38</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2032,19 +2061,19 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
         <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2057,13 +2086,13 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>18</v>
@@ -2092,7 +2121,7 @@
         <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>18</v>
@@ -2112,10 +2141,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>19</v>
@@ -2134,14 +2163,14 @@
         <v>45736</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7" t="str">
         <f>C25</f>
         <v>Ustadz Ngalal</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -2167,19 +2196,19 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2224,10 +2253,10 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>37</v>
@@ -2246,14 +2275,14 @@
         <v>45740</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D29" s="7" t="str">
         <f>C29</f>
         <v>Ustadz Imanuddin</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -2269,7 +2298,7 @@
         <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2282,10 +2311,10 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>30</v>
@@ -2303,10 +2332,10 @@
       <c r="B31" s="11">
         <v>45742</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="14" t="str">
+      <c r="C31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="12" t="str">
         <f>C31</f>
         <v>Ustadz Latip</v>
       </c>
@@ -2337,10 +2366,10 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>43</v>
@@ -2391,7 +2420,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
@@ -2405,8 +2434,8 @@
       <c r="I34" s="6"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
-        <v>79</v>
+      <c r="A36" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2423,10 +2452,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2445,12 +2474,12 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2515,7 +2544,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>29</v>
@@ -2533,7 +2562,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>33</v>
@@ -2551,7 +2580,7 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -2587,7 +2616,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>42</v>
@@ -2601,11 +2630,11 @@
       <c r="B12" s="4">
         <v>45723</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
+      <c r="C12" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>43</v>
@@ -2623,7 +2652,7 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>46</v>
@@ -2637,11 +2666,11 @@
       <c r="B14" s="4">
         <v>45725</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>46</v>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
@@ -2659,10 +2688,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2674,13 +2703,13 @@
         <v>45727</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2692,13 +2721,13 @@
         <v>45728</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2713,10 +2742,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2731,10 +2760,10 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2746,13 +2775,13 @@
         <v>45731</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2764,13 +2793,13 @@
         <v>45732</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2782,7 +2811,7 @@
         <v>45733</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2798,10 +2827,10 @@
         <v>45734</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7"/>
     </row>
@@ -2849,7 +2878,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -2865,7 +2894,7 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -2897,7 +2926,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7"/>
     </row>
@@ -2913,7 +2942,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F30" s="7"/>
     </row>
@@ -2929,7 +2958,7 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F31" s="7"/>
     </row>
@@ -2945,7 +2974,7 @@
         <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -2961,7 +2990,7 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F33" s="7"/>
     </row>
@@ -2976,9 +3005,19 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F34" s="3"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="F5:F33">
@@ -3028,22 +3067,22 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>19</v>
@@ -3060,7 +3099,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -3093,7 +3132,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -3126,10 +3165,10 @@
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7">
         <v>3</v>
@@ -3159,10 +3198,10 @@
         <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7">
         <v>5</v>
@@ -3192,7 +3231,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
@@ -3228,7 +3267,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7">
         <v>11</v>
@@ -3258,10 +3297,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
@@ -3291,10 +3330,10 @@
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" s="7">
         <v>9</v>
@@ -3324,10 +3363,10 @@
         <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -3357,10 +3396,10 @@
         <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7">
         <v>7</v>
@@ -3390,10 +3429,10 @@
         <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G12" s="3">
         <v>12</v>
@@ -3416,13 +3455,13 @@
         <v>45727</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
       </c>
       <c r="G13" s="7">
         <v>13</v>
@@ -3445,13 +3484,13 @@
         <v>45728</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G14" s="3">
         <v>26</v>
@@ -3477,7 +3516,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
@@ -3506,10 +3545,10 @@
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G16" s="3">
         <v>17</v>
@@ -3532,10 +3571,10 @@
         <v>45731</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -3561,7 +3600,7 @@
         <v>45732</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" s="7"/>
       <c r="L18" s="7" t="s">
@@ -3577,7 +3616,7 @@
         <v>45733</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>41</v>
@@ -3592,7 +3631,7 @@
         <v>45734</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>41</v>
@@ -3610,7 +3649,7 @@
         <v>19</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3625,7 +3664,7 @@
         <v>24</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3640,7 +3679,7 @@
         <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3655,7 +3694,7 @@
         <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3670,7 +3709,7 @@
         <v>37</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3685,7 +3724,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3697,7 +3736,7 @@
         <v>45741</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L27" s="8"/>
     </row>
@@ -3782,7 +3821,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3790,29 +3829,29 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3822,18 +3861,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3841,7 +3880,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3849,7 +3888,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3857,35 +3896,35 @@
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3899,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3910,10 +3949,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3924,71 +3963,71 @@
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3999,7 +4038,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4010,10 +4049,10 @@
         <v>28</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4024,7 +4063,7 @@
         <v>23</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4201,13 +4240,13 @@
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4227,7 +4266,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4241,13 +4280,13 @@
         <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4258,13 +4297,13 @@
         <v>45733</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>18</v>
@@ -4279,10 +4318,10 @@
         <v>45735</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4300,19 +4339,19 @@
         <v>45737</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4323,10 +4362,10 @@
         <v>45739</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>37</v>
@@ -4344,13 +4383,13 @@
         <v>45741</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -4362,7 +4401,7 @@
         <v>45743</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>43</v>

--- a/file.xlsx
+++ b/file.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="123">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ananda Akmal</t>
   </si>
   <si>
-    <t>Ramadhan ke</t>
-  </si>
-  <si>
     <t>Tanggal</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
     <t>Ananda Idris</t>
   </si>
   <si>
+    <t>✅</t>
+  </si>
+  <si>
     <t>Ustadz Andi Iskandar</t>
   </si>
   <si>
@@ -266,6 +266,12 @@
     <t>+62 812-5384-450</t>
   </si>
   <si>
+    <t xml:space="preserve">Bagi yang ingin mendapatkan salinan jadwal imam, silahkan ketik </t>
+  </si>
+  <si>
+    <r>
+      <t>tarawih</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -274,7 +280,48 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bagi yang ingin mendapatkan salinan jadwal imam, silahkan ketik </t>
+      <t xml:space="preserve"> ke WA 0851-8327-9550</t>
+    </r>
+  </si>
+  <si>
+    <t>Abdul Rifai 3x harinya Senin atau kamis</t>
+  </si>
+  <si>
+    <t>Musholla Baitul Hilmi, Jalan Monas</t>
+  </si>
+  <si>
+    <t>+62 823-2004-0021</t>
+  </si>
+  <si>
+    <t>+62 852-4603-5732</t>
+  </si>
+  <si>
+    <t>+62 812-5804-5853</t>
+  </si>
+  <si>
+    <t>+62 857-5422-7966</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +62 815-4514-3654</t>
+  </si>
+  <si>
+    <t>+62 853-8889-8918</t>
+  </si>
+  <si>
+    <t>+62 851-5695-2623</t>
+  </si>
+  <si>
+    <t>+62 898-5520-616</t>
+  </si>
+  <si>
+    <t>+62 822-5282-6688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagi yang ingin mendapatkan salinan jadwal imam, </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">silahkan ketik </t>
     </r>
     <r>
       <rPr>
@@ -285,7 +332,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">tarawih </t>
+      <t>tarawih</t>
     </r>
     <r>
       <rPr>
@@ -295,60 +342,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ke WA 0851-8327-9550</t>
+      <t xml:space="preserve"> ke WA 0851-8327-9550</t>
     </r>
   </si>
   <si>
-    <t>Abdul Rifai 3x harinya Senin atau kamis</t>
-  </si>
-  <si>
-    <t>Musholla Baitul Hilmi, Jalan Monas</t>
-  </si>
-  <si>
-    <t>+62 823-2004-0021</t>
-  </si>
-  <si>
-    <t>+62 852-4603-5732</t>
-  </si>
-  <si>
-    <t>+62 812-5804-5853</t>
-  </si>
-  <si>
-    <t>+62 857-5422-7966</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +62 815-4514-3654</t>
-  </si>
-  <si>
-    <t>+62 853-8889-8918</t>
-  </si>
-  <si>
-    <t>+62 851-5695-2623</t>
-  </si>
-  <si>
-    <t>+62 898-5520-616</t>
-  </si>
-  <si>
-    <t>+62 822-5282-6688</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bagi yang ingin mendapatkan salinan jadwal imam, silahkan ketik </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">tarawih </t>
-    </r>
-  </si>
-  <si>
-    <t>ke WA 0851-8327-9550</t>
+    <t>Ramadhan ke</t>
   </si>
   <si>
     <t>namaPanggilan</t>
@@ -1078,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1120,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1443,17 +1444,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="4.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
-    <col min="3" max="5" width="23.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="7.44444444444444" customWidth="1"/>
+    <col min="4" max="5" width="23.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="15.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="20.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="20.2222222222222" customWidth="1"/>
@@ -1509,37 +1511,35 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1550,11 +1550,10 @@
         <v>45716</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="7" t="str">
-        <f>C5</f>
-        <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>17</v>
@@ -1626,11 +1625,10 @@
         <v>45718</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <f>C7</f>
-        <v>Ustadz Yasser Hamzah</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1691,11 +1689,10 @@
         <v>45720</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <f>C9</f>
-        <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -1750,11 +1747,10 @@
         <v>45722</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="7" t="str">
-        <f>C11</f>
-        <v>Ustadz Aslam Abu Hanifah</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -1809,11 +1805,10 @@
         <v>45724</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="7" t="str">
-        <f>C13</f>
-        <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -1868,11 +1863,10 @@
         <v>45726</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" s="12" t="str">
-        <f>C15</f>
-        <v>Ustadz Rezky</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
@@ -1930,11 +1924,10 @@
         <v>45728</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="7" t="str">
-        <f>C17</f>
-        <v>Ustadz Muhammad Asmuni</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
@@ -1989,11 +1982,10 @@
         <v>45730</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" s="12" t="str">
-        <f>C19</f>
-        <v>Ustadz Rezky</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -2048,11 +2040,10 @@
         <v>45732</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="D21" s="12" t="str">
-        <f>C21</f>
-        <v>Ustadz Zaky</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -2108,11 +2099,10 @@
         <v>45734</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="7" t="str">
-        <f>C23</f>
-        <v>Ustadz Chairid Daha</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -2163,11 +2153,10 @@
         <v>45736</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D25" s="7" t="str">
-        <f>C25</f>
-        <v>Ustadz Ngalal</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -2220,11 +2209,10 @@
         <v>45738</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D27" s="7" t="str">
-        <f>C27</f>
-        <v>Ustadz Wahidi Rahman</v>
       </c>
       <c r="E27" t="s">
         <v>35</v>
@@ -2275,11 +2263,10 @@
         <v>45740</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D29" s="7" t="str">
-        <f>C29</f>
-        <v>Ustadz Imanuddin</v>
       </c>
       <c r="E29" t="s">
         <v>74</v>
@@ -2333,11 +2320,10 @@
         <v>45742</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="D31" s="12" t="str">
-        <f>C31</f>
-        <v>Ustadz Latip</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -2388,11 +2374,10 @@
         <v>45744</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D33" s="7" t="str">
-        <f>C33</f>
-        <v>Ustadz Andi Iskandar</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>17</v>
@@ -2436,6 +2421,11 @@
     <row r="36" spans="1:1">
       <c r="A36" s="14" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2454,15 +2444,16 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
-    <col min="3" max="4" width="26.4296296296296" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="26.4296296296296" customWidth="1"/>
     <col min="6" max="6" width="33.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2474,26 +2465,24 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -2544,7 +2533,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>29</v>
@@ -2562,7 +2551,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>33</v>
@@ -2580,7 +2569,7 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -2613,10 +2602,10 @@
         <v>45722</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>42</v>
@@ -2634,7 +2623,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>43</v>
@@ -2670,7 +2659,7 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
@@ -2688,7 +2677,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>50</v>
@@ -2742,7 +2731,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>57</v>
@@ -2760,7 +2749,7 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>58</v>
@@ -2796,7 +2785,7 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>59</v>
@@ -2830,7 +2819,7 @@
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7"/>
     </row>
@@ -2878,7 +2867,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -2894,7 +2883,7 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -2926,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" s="7"/>
     </row>
@@ -2942,7 +2931,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F30" s="7"/>
     </row>
@@ -2958,7 +2947,7 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F31" s="7"/>
     </row>
@@ -2990,7 +2979,7 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F33" s="7"/>
     </row>
@@ -3005,18 +2994,18 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>94</v>
+      <c r="A37" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3058,31 +3047,31 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>19</v>
@@ -3099,7 +3088,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -3132,7 +3121,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -3165,10 +3154,10 @@
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="7">
         <v>3</v>
@@ -3198,10 +3187,10 @@
         <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7">
         <v>5</v>
@@ -3231,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
@@ -3267,7 +3256,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" s="7">
         <v>11</v>
@@ -3297,10 +3286,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
@@ -3363,10 +3352,10 @@
         <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -3396,10 +3385,10 @@
         <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7">
         <v>7</v>
@@ -3429,10 +3418,10 @@
         <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G12" s="3">
         <v>12</v>
@@ -3487,10 +3476,10 @@
         <v>53</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G14" s="3">
         <v>26</v>
@@ -3516,7 +3505,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
@@ -3545,10 +3534,10 @@
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="3">
         <v>17</v>
@@ -3821,7 +3810,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3829,7 +3818,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3840,7 +3829,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3851,7 +3840,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3877,10 +3866,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3888,7 +3877,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3896,10 +3885,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3910,10 +3899,10 @@
         <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3924,7 +3913,7 @@
         <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3938,7 +3927,7 @@
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3949,10 +3938,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3974,10 +3963,10 @@
         <v>74</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3988,10 +3977,10 @@
         <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4002,7 +3991,7 @@
         <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4024,10 +4013,10 @@
         <v>49</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4038,7 +4027,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4049,10 +4038,10 @@
         <v>28</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4141,32 +4130,32 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4237,7 +4226,7 @@
         <v>45727</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>50</v>
@@ -4297,7 +4286,7 @@
         <v>45733</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
         <v>62</v>
@@ -4318,7 +4307,7 @@
         <v>45735</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
@@ -4339,7 +4328,7 @@
         <v>45737</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
         <v>68</v>
@@ -4362,7 +4351,7 @@
         <v>45739</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
@@ -4383,13 +4372,13 @@
         <v>45741</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G15" s="6"/>
     </row>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1446,8 +1446,8 @@
   <sheetPr/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -2444,8 +2444,8 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="124">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Miftahul Hadi</t>
   </si>
   <si>
-    <t>Ananda Afkar</t>
-  </si>
-  <si>
     <t>Zakky</t>
   </si>
   <si>
@@ -206,10 +203,10 @@
     <t>Ustadz Iman</t>
   </si>
   <si>
-    <t>Ananda Hazwan</t>
-  </si>
-  <si>
-    <t>+62 822-5346-8121</t>
+    <t>Ustadz Agus Fitriyanto</t>
+  </si>
+  <si>
+    <t>+62 812-5000-5458</t>
   </si>
   <si>
     <t>Ananda Habib</t>
@@ -270,6 +267,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>tarawih</t>
     </r>
     <r>
@@ -321,6 +326,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">silahkan ketik </t>
     </r>
     <r>
@@ -421,6 +433,12 @@
     <t>Ananda Zuhdi (Alumni)</t>
   </si>
   <si>
+    <t>Ananda Hazwan</t>
+  </si>
+  <si>
+    <t>+62 822-5346-8121</t>
+  </si>
+  <si>
     <t>Ananda Firman (Alumni)</t>
   </si>
   <si>
@@ -433,10 +451,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -455,8 +473,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,91 +552,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,6 +567,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -578,22 +596,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,7 +638,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +734,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +764,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,103 +800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,31 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,17 +847,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,15 +882,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,21 +897,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,17 +921,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,152 +949,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,7 +1140,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,8 +1470,8 @@
   <sheetPr/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -1900,19 +1924,19 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1927,22 +1951,22 @@
         <v>15</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
@@ -1970,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2000,7 +2024,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
@@ -2016,19 +2040,19 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2052,19 +2076,19 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
         <v>59</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2076,14 +2100,14 @@
         <v>45733</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>18</v>
@@ -2111,7 +2135,7 @@
         <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>18</v>
@@ -2131,10 +2155,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
         <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>19</v>
@@ -2156,10 +2180,10 @@
         <v>15</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
         <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -2185,19 +2209,19 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
         <v>67</v>
-      </c>
-      <c r="E26" t="s">
-        <v>68</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2241,10 +2265,10 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
         <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>72</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>37</v>
@@ -2266,10 +2290,10 @@
         <v>15</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
         <v>73</v>
-      </c>
-      <c r="E29" t="s">
-        <v>74</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -2285,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2298,10 +2322,10 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
         <v>76</v>
-      </c>
-      <c r="E30" t="s">
-        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>30</v>
@@ -2323,7 +2347,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -2352,10 +2376,10 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" t="s">
         <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>43</v>
@@ -2405,7 +2429,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
@@ -2420,12 +2444,12 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="16" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2444,8 +2468,8 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2465,12 +2489,12 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2533,7 +2557,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>29</v>
@@ -2551,7 +2575,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>33</v>
@@ -2569,7 +2593,7 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -2605,7 +2629,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>42</v>
@@ -2620,10 +2644,10 @@
         <v>45723</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>43</v>
@@ -2641,7 +2665,7 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>46</v>
@@ -2659,7 +2683,7 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
@@ -2677,7 +2701,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>50</v>
@@ -2692,13 +2716,13 @@
         <v>45727</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2710,13 +2734,13 @@
         <v>45728</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2731,10 +2755,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2749,10 +2773,10 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2764,13 +2788,13 @@
         <v>45731</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2782,13 +2806,13 @@
         <v>45732</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2800,7 +2824,7 @@
         <v>45733</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2819,7 +2843,7 @@
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7"/>
     </row>
@@ -2867,7 +2891,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -2883,7 +2907,7 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -2915,7 +2939,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7"/>
     </row>
@@ -2931,7 +2955,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="7"/>
     </row>
@@ -2947,7 +2971,7 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="7"/>
     </row>
@@ -2963,7 +2987,7 @@
         <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -2979,7 +3003,7 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F33" s="7"/>
     </row>
@@ -2994,18 +3018,18 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3047,7 +3071,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -3056,22 +3080,22 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>101</v>
-      </c>
-      <c r="J1" t="s">
-        <v>102</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>19</v>
@@ -3088,7 +3112,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -3121,7 +3145,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -3154,10 +3178,10 @@
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7">
         <v>3</v>
@@ -3187,10 +3211,10 @@
         <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7">
         <v>5</v>
@@ -3220,7 +3244,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
@@ -3256,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7">
         <v>11</v>
@@ -3286,10 +3310,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
@@ -3319,10 +3343,10 @@
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="7">
         <v>9</v>
@@ -3352,10 +3376,10 @@
         <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -3385,10 +3409,10 @@
         <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7">
         <v>7</v>
@@ -3418,10 +3442,10 @@
         <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
         <v>111</v>
-      </c>
-      <c r="F12" t="s">
-        <v>112</v>
       </c>
       <c r="G12" s="3">
         <v>12</v>
@@ -3473,13 +3497,13 @@
         <v>45728</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
         <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
       </c>
       <c r="G14" s="3">
         <v>26</v>
@@ -3505,7 +3529,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
@@ -3534,10 +3558,10 @@
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="3">
         <v>17</v>
@@ -3560,10 +3584,10 @@
         <v>45731</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -3589,7 +3613,7 @@
         <v>45732</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7"/>
       <c r="L18" s="7" t="s">
@@ -3605,7 +3629,7 @@
         <v>45733</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>41</v>
@@ -3620,7 +3644,7 @@
         <v>45734</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>41</v>
@@ -3653,7 +3677,7 @@
         <v>24</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3668,7 +3692,7 @@
         <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3683,7 +3707,7 @@
         <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3698,7 +3722,7 @@
         <v>37</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3713,7 +3737,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3725,7 +3749,7 @@
         <v>45741</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="8"/>
     </row>
@@ -3810,7 +3834,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3818,29 +3842,29 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3850,18 +3874,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3869,7 +3893,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3877,7 +3901,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3885,35 +3909,35 @@
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3927,7 +3951,7 @@
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3938,10 +3962,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3952,54 +3976,54 @@
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
         <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>48</v>
@@ -4013,10 +4037,10 @@
         <v>49</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4027,7 +4051,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4038,10 +4062,10 @@
         <v>28</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4052,7 +4076,7 @@
         <v>23</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4130,7 +4154,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -4235,7 +4259,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4255,7 +4279,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4269,13 +4293,13 @@
         <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4286,13 +4310,13 @@
         <v>45733</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>18</v>
@@ -4307,10 +4331,10 @@
         <v>45735</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4328,19 +4352,19 @@
         <v>45737</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4351,10 +4375,10 @@
         <v>45739</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>37</v>
@@ -4372,13 +4396,13 @@
         <v>45741</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -4390,7 +4414,7 @@
         <v>45743</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>43</v>

--- a/file.xlsx
+++ b/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="1" r:id="rId1"/>
@@ -451,10 +451,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -473,9 +473,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +497,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,9 +565,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,38 +581,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,43 +616,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -638,13 +638,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,13 +674,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,13 +728,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,127 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,21 +862,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -897,26 +882,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,153 +909,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1470,7 +1470,7 @@
   <sheetPr/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -2468,8 +2468,8 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2715,11 +2715,11 @@
       <c r="B16" s="4">
         <v>45727</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>51</v>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>52</v>
@@ -2983,11 +2983,11 @@
       <c r="B32" s="4">
         <v>45743</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
+      <c r="C32" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F32" s="3"/>
     </row>

--- a/file.xlsx
+++ b/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="124">
   <si>
     <t>Jadwal Petugas Kegiatan Tarawih Ramadhan 1446 H</t>
   </si>
@@ -182,79 +182,79 @@
     <t>Rezky Adistya</t>
   </si>
   <si>
+    <t>Ustadz Latip</t>
+  </si>
+  <si>
+    <t>Wachyu</t>
+  </si>
+  <si>
+    <t>Wahidi Rahman</t>
+  </si>
+  <si>
+    <t>Yuda</t>
+  </si>
+  <si>
+    <t>Zen</t>
+  </si>
+  <si>
+    <t>Ustadz Iman</t>
+  </si>
+  <si>
+    <t>Ustadz Agus Fitriyanto</t>
+  </si>
+  <si>
+    <t>+62 812-5000-5458</t>
+  </si>
+  <si>
+    <t>Ananda Habib</t>
+  </si>
+  <si>
+    <t>+62 852-1006-7327</t>
+  </si>
+  <si>
+    <t>Ustadz Ngalal</t>
+  </si>
+  <si>
+    <t>+62 853-8933-3869</t>
+  </si>
+  <si>
+    <t>Ananda Royyan</t>
+  </si>
+  <si>
+    <t>+62 813-4641-7124</t>
+  </si>
+  <si>
+    <t>insya Allah</t>
+  </si>
+  <si>
+    <t>Alumni sepuluh malam terakhir</t>
+  </si>
+  <si>
+    <t>Ananda Zuhdi</t>
+  </si>
+  <si>
+    <t>+62 852-4967-2832</t>
+  </si>
+  <si>
+    <t>Ustadz Imanuddin</t>
+  </si>
+  <si>
+    <t>+62 822-7418-0206</t>
+  </si>
+  <si>
+    <t>(baru sekali)</t>
+  </si>
+  <si>
+    <t>Ananda Firman</t>
+  </si>
+  <si>
+    <t>+62 822-4124-5719</t>
+  </si>
+  <si>
     <t>Ustadz Muhammad Asmuni</t>
   </si>
   <si>
     <t>+62 812-5034-0349</t>
-  </si>
-  <si>
-    <t>Wachyu</t>
-  </si>
-  <si>
-    <t>Wahidi Rahman</t>
-  </si>
-  <si>
-    <t>Yuda</t>
-  </si>
-  <si>
-    <t>Zen</t>
-  </si>
-  <si>
-    <t>Ustadz Iman</t>
-  </si>
-  <si>
-    <t>Ustadz Agus Fitriyanto</t>
-  </si>
-  <si>
-    <t>+62 812-5000-5458</t>
-  </si>
-  <si>
-    <t>Ananda Habib</t>
-  </si>
-  <si>
-    <t>+62 852-1006-7327</t>
-  </si>
-  <si>
-    <t>Ustadz Ngalal</t>
-  </si>
-  <si>
-    <t>+62 853-8933-3869</t>
-  </si>
-  <si>
-    <t>Ananda Royyan</t>
-  </si>
-  <si>
-    <t>+62 813-4641-7124</t>
-  </si>
-  <si>
-    <t>insya Allah</t>
-  </si>
-  <si>
-    <t>Alumni sepuluh malam terakhir</t>
-  </si>
-  <si>
-    <t>Ananda Zuhdi</t>
-  </si>
-  <si>
-    <t>+62 852-4967-2832</t>
-  </si>
-  <si>
-    <t>Ustadz Imanuddin</t>
-  </si>
-  <si>
-    <t>+62 822-7418-0206</t>
-  </si>
-  <si>
-    <t>(baru sekali)</t>
-  </si>
-  <si>
-    <t>Ananda Firman</t>
-  </si>
-  <si>
-    <t>+62 822-4124-5719</t>
-  </si>
-  <si>
-    <t>Ustadz Latip</t>
   </si>
   <si>
     <t>Ananda Hasyim</t>
@@ -451,8 +451,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -473,6 +473,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -481,8 +543,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,39 +566,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,40 +583,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -587,31 +610,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,7 +638,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,31 +770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,79 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,49 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,41 +847,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,15 +867,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,6 +888,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -936,11 +938,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,148 +949,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1470,8 +1470,8 @@
   <sheetPr/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -1950,11 +1950,11 @@
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1966,7 +1966,7 @@
         <v>18</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
@@ -1994,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2024,7 +2024,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
@@ -2046,7 +2046,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>18</v>
@@ -2063,9 +2063,7 @@
       <c r="B21" s="11">
         <v>45732</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
         <v>22</v>
       </c>
@@ -2076,19 +2074,19 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
         <v>58</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2101,10 +2099,10 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>51</v>
@@ -2135,7 +2133,7 @@
         <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>18</v>
@@ -2155,10 +2153,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>19</v>
@@ -2180,10 +2178,10 @@
         <v>15</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
         <v>64</v>
-      </c>
-      <c r="E25" t="s">
-        <v>65</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -2209,19 +2207,19 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
         <v>66</v>
-      </c>
-      <c r="E26" t="s">
-        <v>67</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2265,10 +2263,10 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
         <v>70</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>37</v>
@@ -2290,10 +2288,10 @@
         <v>15</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
         <v>72</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -2309,7 +2307,7 @@
         <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2322,10 +2320,10 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
         <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>30</v>
@@ -2346,11 +2344,11 @@
       <c r="C31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
         <v>77</v>
-      </c>
-      <c r="E31" t="s">
-        <v>38</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -2429,7 +2427,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
@@ -2468,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:D32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2644,7 +2642,7 @@
         <v>45723</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
@@ -2665,7 +2663,7 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>46</v>
@@ -2719,7 +2717,7 @@
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>52</v>
@@ -2740,7 +2738,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2758,7 +2756,7 @@
         <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2776,7 +2774,7 @@
         <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2788,7 +2786,7 @@
         <v>45731</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
@@ -2806,13 +2804,13 @@
         <v>45732</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3343,10 +3341,10 @@
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="7">
         <v>9</v>
@@ -3584,7 +3582,7 @@
         <v>45731</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>51</v>
@@ -3613,7 +3611,7 @@
         <v>45732</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="7"/>
       <c r="L18" s="7" t="s">
@@ -3644,7 +3642,7 @@
         <v>45734</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>41</v>
@@ -3692,7 +3690,7 @@
         <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3707,7 +3705,7 @@
         <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3722,7 +3720,7 @@
         <v>37</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3749,7 +3747,7 @@
         <v>45741</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="8"/>
     </row>
@@ -3847,10 +3845,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>118</v>
@@ -3858,10 +3856,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>119</v>
@@ -3917,10 +3915,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>105</v>
@@ -3931,10 +3929,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
         <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>106</v>
@@ -3976,15 +3974,15 @@
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
         <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>108</v>
@@ -3995,7 +3993,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -4009,10 +4007,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>110</v>
@@ -4020,10 +4018,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>48</v>
@@ -4279,7 +4277,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4293,7 +4291,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>18</v>
@@ -4334,7 +4332,7 @@
         <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4355,16 +4353,16 @@
         <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4378,7 +4376,7 @@
         <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>37</v>
@@ -4399,7 +4397,7 @@
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>123</v>

--- a/file.xlsx
+++ b/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ke WA 0851-8327-9550</t>
+      <t xml:space="preserve"> ke WA 0815-4514-3654</t>
     </r>
   </si>
   <si>
@@ -354,7 +354,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ke WA 0851-8327-9550</t>
+      <t xml:space="preserve"> ke WA 0815-4514-3654</t>
     </r>
   </si>
   <si>
@@ -451,8 +451,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dddd&quot;, &quot;dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -481,11 +481,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,29 +511,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -545,22 +552,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,29 +560,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,8 +587,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,19 +638,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,25 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +704,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,31 +746,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,73 +806,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,17 +856,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,32 +891,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,6 +912,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -936,11 +930,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,142 +949,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1201,6 +1201,18 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1470,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15"/>
@@ -2455,6 +2467,11 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C5:C34">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2466,8 +2483,8 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2885,11 +2902,11 @@
       <c r="B26" s="4">
         <v>45737</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
+      <c r="C26" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -2997,11 +3014,11 @@
       <c r="B33" s="11">
         <v>45744</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>46</v>
+      <c r="C33" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="F33" s="7"/>
     </row>
@@ -3013,10 +3030,10 @@
         <v>45745</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F34" s="3"/>
     </row>
